--- a/plan.xlsx
+++ b/plan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>liaoxuefeng js</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>runoob css3</t>
-  </si>
-  <si>
-    <t>runoob js</t>
   </si>
   <si>
     <t>siki c# 基础练习题</t>
@@ -554,7 +551,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="3"/>
     </row>
@@ -563,7 +560,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1"/>
     </row>
@@ -576,10 +573,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A42"/>
+  <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -612,18 +609,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
         <v>8</v>
       </c>
     </row>
@@ -642,8 +639,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -667,8 +664,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
         <v>17</v>
       </c>
     </row>
@@ -682,8 +679,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
         <v>20</v>
       </c>
     </row>
@@ -697,8 +694,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
         <v>23</v>
       </c>
     </row>
@@ -710,11 +707,6 @@
     <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -738,33 +730,33 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>38</v>
-      </c>
-      <c r="J1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -794,7 +786,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -824,7 +816,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -854,7 +846,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>0.5</v>
@@ -884,7 +876,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -914,7 +906,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8">
         <v>1.5</v>
@@ -938,7 +930,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -968,7 +960,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10">
         <f>3/4</f>
@@ -1005,7 +997,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1020,7 +1012,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13">
         <f t="shared" ref="B13:H13" si="3">SUM(B2:B11)</f>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>liaoxuefeng js</t>
   </si>
@@ -31,140 +31,149 @@
     <t>runoob css</t>
   </si>
   <si>
+    <t>siki c# 基础练习题</t>
+  </si>
+  <si>
+    <t>c#入门经典</t>
+  </si>
+  <si>
+    <t>siki程序其他教程</t>
+  </si>
+  <si>
+    <t>c primer plus</t>
+  </si>
+  <si>
+    <t>yiibai c 实例</t>
+  </si>
+  <si>
+    <t>runoob c 实例</t>
+  </si>
+  <si>
+    <t>runoob c 100例</t>
+  </si>
+  <si>
+    <t>yiibai c++</t>
+  </si>
+  <si>
+    <t>yiibai c++标准库</t>
+  </si>
+  <si>
+    <t>c++ primer plus</t>
+  </si>
+  <si>
+    <t>siki 30编程题</t>
+  </si>
+  <si>
+    <t>siki c\c++ 100题</t>
+  </si>
+  <si>
+    <t>runoob lua</t>
+  </si>
+  <si>
+    <t>yiibai lua</t>
+  </si>
+  <si>
+    <t>siki lua</t>
+  </si>
+  <si>
+    <t>runoob vbs</t>
+  </si>
+  <si>
+    <t>yiibai vba</t>
+  </si>
+  <si>
+    <t>别怕vba</t>
+  </si>
+  <si>
+    <t>liaoxuefeng python</t>
+  </si>
+  <si>
+    <t>runoob python</t>
+  </si>
+  <si>
+    <t>yiibai python</t>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>News</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Concept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Book</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期三</t>
+  </si>
+  <si>
+    <t>星期四</t>
+  </si>
+  <si>
+    <t>星期五</t>
+  </si>
+  <si>
+    <t>星期六</t>
+  </si>
+  <si>
+    <t>星期日</t>
+  </si>
+  <si>
+    <t>sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game Daily</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game Mobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game Daily</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game Extra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>runoob css3</t>
-  </si>
-  <si>
-    <t>siki c# 基础练习题</t>
-  </si>
-  <si>
-    <t>c#入门经典</t>
-  </si>
-  <si>
-    <t>siki程序其他教程</t>
-  </si>
-  <si>
-    <t>c primer plus</t>
-  </si>
-  <si>
-    <t>yiibai c 实例</t>
-  </si>
-  <si>
-    <t>runoob c 实例</t>
-  </si>
-  <si>
-    <t>runoob c 100例</t>
-  </si>
-  <si>
-    <t>yiibai c++</t>
-  </si>
-  <si>
-    <t>yiibai c++标准库</t>
-  </si>
-  <si>
-    <t>c++ primer plus</t>
-  </si>
-  <si>
-    <t>siki 30编程题</t>
-  </si>
-  <si>
-    <t>siki c\c++ 100题</t>
-  </si>
-  <si>
-    <t>runoob lua</t>
-  </si>
-  <si>
-    <t>yiibai lua</t>
-  </si>
-  <si>
-    <t>siki lua</t>
-  </si>
-  <si>
-    <t>runoob vbs</t>
-  </si>
-  <si>
-    <t>yiibai vba</t>
-  </si>
-  <si>
-    <t>别怕vba</t>
-  </si>
-  <si>
-    <t>liaoxuefeng python</t>
-  </si>
-  <si>
-    <t>runoob python</t>
-  </si>
-  <si>
-    <t>yiibai python</t>
-  </si>
-  <si>
-    <t>Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reading</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>News</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Concept</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Book</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>星期一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>星期二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>星期三</t>
-  </si>
-  <si>
-    <t>星期四</t>
-  </si>
-  <si>
-    <t>星期五</t>
-  </si>
-  <si>
-    <t>星期六</t>
-  </si>
-  <si>
-    <t>星期日</t>
-  </si>
-  <si>
-    <t>sum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Game Daily</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Game Mobile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cs50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Game Daily</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Game Extra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runoob js 实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runoob js 参考手册</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -551,7 +560,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="3"/>
     </row>
@@ -560,7 +569,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1"/>
     </row>
@@ -573,10 +582,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A41"/>
+  <dimension ref="A1:A42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -606,107 +615,117 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -730,33 +749,33 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>37</v>
-      </c>
-      <c r="J1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -786,7 +805,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -816,7 +835,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -846,7 +865,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>0.5</v>
@@ -876,7 +895,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -906,7 +925,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8">
         <v>1.5</v>
@@ -930,7 +949,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -960,7 +979,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10">
         <f>3/4</f>
@@ -997,7 +1016,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1012,7 +1031,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13">
         <f t="shared" ref="B13:H13" si="3">SUM(B2:B11)</f>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>liaoxuefeng js</t>
   </si>
@@ -174,6 +174,10 @@
   </si>
   <si>
     <t>runoob js 参考手册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w3school js 高级教程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -582,10 +586,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A42"/>
+  <dimension ref="A1:A44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -630,101 +634,106 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
         <v>24</v>
       </c>
     </row>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>liaoxuefeng js</t>
   </si>
@@ -178,6 +178,10 @@
   </si>
   <si>
     <t>w3school js 高级教程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECMAScript</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -586,10 +590,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A44"/>
+  <dimension ref="A1:A43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -602,138 +606,143 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
         <v>24</v>
       </c>
     </row>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>liaoxuefeng js</t>
   </si>
@@ -182,6 +182,10 @@
   </si>
   <si>
     <t>ECMAScript</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unity js</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -590,10 +594,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A43"/>
+  <dimension ref="A1:A44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -646,103 +650,108 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
         <v>24</v>
       </c>
     </row>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -11,13 +11,14 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>liaoxuefeng js</t>
   </si>
@@ -186,6 +187,22 @@
   </si>
   <si>
     <t>Unity js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w3school js 实例和测验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w3school js 参考手册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w3cschool js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H5游戏试做</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -270,6 +287,196 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104419</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>56736</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2847619" cy="3314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142343</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47276</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3600450"/>
+          <a:ext cx="4257143" cy="2790476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>371000</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>123467</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6515100"/>
+          <a:ext cx="3800000" cy="2866667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28057</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>27779</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9601200"/>
+          <a:ext cx="4142857" cy="6371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4514286" cy="3257143"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="16116300"/>
+          <a:ext cx="4514286" cy="3257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -594,10 +801,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A44"/>
+  <dimension ref="A1:A52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -607,151 +814,171 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>5</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>8</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>12</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1219,4 +1446,21 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/plan.xlsx
+++ b/plan.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>liaoxuefeng js</t>
   </si>
@@ -203,6 +203,22 @@
   </si>
   <si>
     <t>H5游戏试做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官方文档——微信小程序开发指南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官方文档——微信小游戏开发指南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信小游戏开发教程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信公开课</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -766,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -784,13 +800,19 @@
       <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="B2" s="1"/>
+      <c r="A2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B4" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -801,15 +823,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A52"/>
+  <dimension ref="A1:A56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="27.125" customWidth="1"/>
+    <col min="1" max="1" width="31.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -827,158 +849,173 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" ht="14.25" customHeight="1">
       <c r="A4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>51</v>
+    <row r="5" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
         <v>24</v>
       </c>
     </row>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>liaoxuefeng js</t>
   </si>
@@ -219,6 +219,10 @@
   </si>
   <si>
     <t>微信公开课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w3school js HTML DOM 实例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -311,127 +315,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>104419</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>56736</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2847619" cy="3314286"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>142343</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>47276</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="3600450"/>
-          <a:ext cx="4257143" cy="2790476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>371000</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>123467</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="6515100"/>
-          <a:ext cx="3800000" cy="2866667"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>28057</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>27779</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -442,7 +332,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -463,7 +353,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4514286" cy="3257143"/>
@@ -475,7 +365,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -823,10 +713,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A56"/>
+  <dimension ref="A1:A57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -866,156 +756,161 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1489,8 +1384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -10,15 +10,15 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>liaoxuefeng js</t>
   </si>
@@ -187,10 +187,6 @@
   </si>
   <si>
     <t>Unity js</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>w3school js 实例和测验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -307,82 +303,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>28057</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>27779</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="9601200"/>
-          <a:ext cx="4142857" cy="6371429"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4514286" cy="3257143"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="16116300"/>
-          <a:ext cx="4514286" cy="3257143"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -691,7 +611,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="3"/>
     </row>
@@ -713,10 +633,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A57"/>
+  <dimension ref="A1:A56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -746,17 +666,17 @@
     </row>
     <row r="5" spans="1:1" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -781,27 +701,27 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -809,108 +729,103 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1260,7 +1175,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1385,7 +1300,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1393,6 +1308,5 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/plan.xlsx
+++ b/plan.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>liaoxuefeng js</t>
   </si>
@@ -203,10 +203,6 @@
   </si>
   <si>
     <t>官方文档——微信小程序开发指南</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>官方文档——微信小游戏开发指南</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -611,7 +607,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="3"/>
     </row>
@@ -633,10 +629,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A56"/>
+  <dimension ref="A1:A55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -676,7 +672,7 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -724,108 +720,103 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
         <v>24</v>
       </c>
     </row>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>liaoxuefeng js</t>
   </si>
@@ -186,19 +186,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Unity js</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>w3school js 参考手册</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>w3cschool js</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H5游戏试做</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -591,7 +583,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -607,7 +599,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" s="3"/>
     </row>
@@ -629,10 +621,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A55"/>
+  <dimension ref="A1:A53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -662,17 +654,17 @@
     </row>
     <row r="5" spans="1:1" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -697,126 +689,116 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
         <v>24</v>
       </c>
     </row>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -580,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -598,19 +598,13 @@
       <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
       <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -621,10 +615,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A53"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -652,153 +646,159 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A5" t="s">
-        <v>51</v>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="17" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
         <v>24</v>
       </c>
     </row>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -615,10 +615,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -648,157 +648,157 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="14.25" customHeight="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
+      <c r="A18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
+      <c r="B18" s="3"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
         <v>24</v>
       </c>
     </row>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6BB13DEC-5131-4A52-8378-35D3D9B6C470}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,12 +14,12 @@
     <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>liaoxuefeng js</t>
   </si>
@@ -191,14 +192,6 @@
   </si>
   <si>
     <t>w3cschool js</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>官方文档——微信小程序开发指南</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信小游戏开发教程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -213,8 +206,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,7 +287,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -369,6 +362,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -404,6 +414,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -579,32 +606,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="3"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B4" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -614,191 +647,175 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="31.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A4" t="s">
+    <row r="14" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="3"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
         <v>24</v>
       </c>
     </row>
@@ -809,19 +826,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>30</v>
       </c>
@@ -847,7 +864,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -877,7 +894,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -907,7 +924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -937,7 +954,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -967,7 +984,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -997,7 +1014,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -1021,7 +1038,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -1051,7 +1068,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -1088,7 +1105,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -1103,7 +1120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -1144,16 +1161,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="4">
         <v>1.5</v>
       </c>
@@ -1176,7 +1193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1185,7 +1202,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1.5</v>
       </c>
@@ -1205,7 +1222,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E4">
         <v>1.5</v>
       </c>
@@ -1216,7 +1233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1239,7 +1256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1269,14 +1286,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6BB13DEC-5131-4A52-8378-35D3D9B6C470}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +13,7 @@
     <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -206,8 +205,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,7 +286,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -362,23 +361,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -414,23 +396,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -606,38 +571,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -647,175 +600,187 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="31.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:1" ht="14.25" customHeight="1">
       <c r="A14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47" t="s">
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
         <v>24</v>
       </c>
     </row>
@@ -826,19 +791,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="B1" t="s">
         <v>30</v>
       </c>
@@ -864,7 +829,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -894,7 +859,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -924,7 +889,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -954,7 +919,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -984,7 +949,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1014,7 +979,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -1038,7 +1003,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -1068,7 +1033,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -1105,7 +1070,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -1120,7 +1085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -1161,16 +1126,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="4">
         <v>1.5</v>
       </c>
@@ -1193,7 +1158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1202,7 +1167,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1.5</v>
       </c>
@@ -1222,7 +1187,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="E4">
         <v>1.5</v>
       </c>
@@ -1233,7 +1198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1256,7 +1221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1286,14 +1251,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -4,21 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>liaoxuefeng js</t>
   </si>
@@ -95,77 +91,10 @@
     <t>yiibai python</t>
   </si>
   <si>
-    <t>Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reading</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>News</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Concept</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Book</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>星期一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>星期二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>星期三</t>
-  </si>
-  <si>
-    <t>星期四</t>
-  </si>
-  <si>
-    <t>星期五</t>
-  </si>
-  <si>
-    <t>星期六</t>
-  </si>
-  <si>
-    <t>星期日</t>
-  </si>
-  <si>
-    <t>sum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Game Daily</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Game Mobile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cs50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Game Daily</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Game Extra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>runoob css3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -191,10 +120,6 @@
   </si>
   <si>
     <t>w3cschool js</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信公开课</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -206,7 +131,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,13 +159,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -262,12 +180,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -572,39 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="3"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="B3" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -614,17 +502,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -634,22 +522,22 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -669,7 +557,7 @@
     </row>
     <row r="14" spans="1:1" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -690,7 +578,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B24" s="3"/>
     </row>
@@ -788,480 +676,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2">
-        <v>0.5</v>
-      </c>
-      <c r="C2">
-        <v>0.5</v>
-      </c>
-      <c r="D2">
-        <v>0.5</v>
-      </c>
-      <c r="E2">
-        <v>0.5</v>
-      </c>
-      <c r="F2">
-        <v>0.5</v>
-      </c>
-      <c r="G2">
-        <v>0.5</v>
-      </c>
-      <c r="H2">
-        <v>0.5</v>
-      </c>
-      <c r="J2">
-        <f t="shared" ref="J2:J11" si="0">SUM(B2:H2)</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5">
-        <v>0.5</v>
-      </c>
-      <c r="C5">
-        <v>0.5</v>
-      </c>
-      <c r="D5">
-        <v>0.5</v>
-      </c>
-      <c r="E5">
-        <v>0.5</v>
-      </c>
-      <c r="F5">
-        <v>0.5</v>
-      </c>
-      <c r="G5">
-        <v>0.5</v>
-      </c>
-      <c r="H5">
-        <v>0.5</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <f t="shared" ref="J6" si="1">SUM(B6:H6)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8">
-        <v>1.5</v>
-      </c>
-      <c r="C8">
-        <v>1.5</v>
-      </c>
-      <c r="D8">
-        <v>1.5</v>
-      </c>
-      <c r="E8">
-        <v>1.5</v>
-      </c>
-      <c r="F8">
-        <v>1.5</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="0"/>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10">
-        <f>3/4</f>
-        <v>0.75</v>
-      </c>
-      <c r="C10">
-        <f t="shared" ref="C10:H10" si="2">3/4</f>
-        <v>0.75</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="2"/>
-        <v>0.75</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="2"/>
-        <v>0.75</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="2"/>
-        <v>0.75</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="2"/>
-        <v>0.75</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="2"/>
-        <v>0.75</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="0"/>
-        <v>5.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="H11">
-        <v>3</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13">
-        <f t="shared" ref="B13:H13" si="3">SUM(B2:B11)</f>
-        <v>7.25</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="3"/>
-        <v>7.25</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="3"/>
-        <v>7.25</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="3"/>
-        <v>7.25</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="3"/>
-        <v>7.25</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="3"/>
-        <v>8.75</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="3"/>
-        <v>8.75</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="B1" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="C1" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="D1" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="E1" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F1" s="4">
-        <v>2</v>
-      </c>
-      <c r="G1" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>1.5</v>
-      </c>
-      <c r="B3">
-        <v>1.5</v>
-      </c>
-      <c r="C3">
-        <v>1.5</v>
-      </c>
-      <c r="D3">
-        <v>1.5</v>
-      </c>
-      <c r="E3">
-        <v>1.5</v>
-      </c>
-      <c r="F3">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="E4">
-        <v>1.5</v>
-      </c>
-      <c r="F4">
-        <v>1.5</v>
-      </c>
-      <c r="G4" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/plan.xlsx
+++ b/plan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>liaoxuefeng js</t>
   </si>
@@ -124,6 +124,10 @@
   </si>
   <si>
     <t>w3school js HTML DOM 实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript语言入门教程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -512,163 +516,168 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A14" t="s">
+    <row r="15" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="2" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>7</v>
-      </c>
+      <c r="B25" s="3"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
         <v>24</v>
       </c>
     </row>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -111,10 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ECMAScript</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>w3school js 参考手册</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -128,6 +124,10 @@
   </si>
   <si>
     <t>JavaScript语言入门教程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECMAScript 6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,7 +496,7 @@
   <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -511,17 +511,17 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -531,12 +531,12 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:1">

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>liaoxuefeng js</t>
   </si>
@@ -104,10 +104,6 @@
   </si>
   <si>
     <t>runoob js 参考手册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>w3school js 高级教程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -493,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -506,7 +502,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -514,170 +510,165 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>34</v>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A15" t="s">
         <v>26</v>
       </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="3"/>
+    </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="3"/>
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
         <v>24</v>
       </c>
     </row>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>liaoxuefeng js</t>
   </si>
@@ -124,6 +124,10 @@
   </si>
   <si>
     <t>ECMAScript 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapp-adapter库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -542,133 +546,138 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A14" t="s">
+    <row r="15" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="2" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>7</v>
-      </c>
+      <c r="B25" s="3"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
         <v>24</v>
       </c>
     </row>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>liaoxuefeng js</t>
   </si>
@@ -128,6 +128,10 @@
   </si>
   <si>
     <t>weapp-adapter库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript语言精粹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,7 +500,7 @@
   <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -506,67 +510,72 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="14.25" customHeight="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2">

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>liaoxuefeng js</t>
   </si>
@@ -132,6 +132,10 @@
   </si>
   <si>
     <t>JavaScript语言精粹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w3cschool js 其它</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -525,168 +529,173 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A14" t="s">
+    <row r="15" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="2" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>7</v>
-      </c>
+      <c r="B26" s="3"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
         <v>24</v>
       </c>
     </row>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Coding" sheetId="2" r:id="rId1"/>
+    <sheet name="日常" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
   <si>
     <t>liaoxuefeng js</t>
   </si>
@@ -136,6 +137,682 @@
   </si>
   <si>
     <t>w3cschool js 其它</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00-9:30 news</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9:30-10:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文章</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公司</t>
+    </r>
+  </si>
+  <si>
+    <t>10:30-12:30 ideas / Design</t>
+  </si>
+  <si>
+    <t>12:30-14:00 Coding</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14:00-15:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>看游戏原型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>美术</t>
+    </r>
+  </si>
+  <si>
+    <t>15:00-18:00 Design</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">18:00-19:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目相关游戏试玩跟进</t>
+    </r>
+  </si>
+  <si>
+    <t>工作日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7:30-9:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目学习实践</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7:00-7:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>读书</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">22:00-23:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>娱乐玩游戏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6:00-7:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>杂事</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4:50-6:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>想事</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / ideas</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">23:00-4:50 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>睡</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00-9:30 news</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9:30-11:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扒带</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8:00-9:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>想事</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / ideas</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6:00-7:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通勤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>杂事</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>听英语</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">20:30-21:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通勤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>听英语</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">21:00-22:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学音乐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实践</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">23:00-2:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>娱乐</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2:00-8:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>睡</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">17:30-21:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>娱乐玩游戏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11:00-12:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>午饭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>影视</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>杂事</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11:00-12:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>午饭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>影视</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>杂事</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14:00-17:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自由</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14:00-14:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>读书</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14:30-16:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目学习实践</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">16:00-17:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自由</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">19:00-20:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参考游戏、拓展游戏体验</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -143,7 +820,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +848,43 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -192,11 +906,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -503,9 +1223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -513,7 +1231,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -703,4 +1421,194 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="35.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.25">
+      <c r="A2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14.25">
+      <c r="A3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.25">
+      <c r="A4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.25">
+      <c r="A5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14.25">
+      <c r="A6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14.25">
+      <c r="A7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14.25">
+      <c r="A8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14.25">
+      <c r="A9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15">
+      <c r="A10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15">
+      <c r="A11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15">
+      <c r="A12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15">
+      <c r="A13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15">
+      <c r="A14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15">
+      <c r="A15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15">
+      <c r="A16" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15">
+      <c r="A17" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/plan.xlsx
+++ b/plan.xlsx
@@ -812,6 +812,25 @@
         <charset val="134"/>
       </rPr>
       <t>参考游戏、拓展游戏体验</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>休息</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1428,7 +1447,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
   <si>
     <t>liaoxuefeng js</t>
   </si>
@@ -196,9 +196,6 @@
     </r>
   </si>
   <si>
-    <t>10:30-12:30 ideas / Design</t>
-  </si>
-  <si>
     <t>12:30-14:00 Coding</t>
   </si>
   <si>
@@ -236,24 +233,6 @@
     </r>
   </si>
   <si>
-    <t>15:00-18:00 Design</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">18:00-19:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>项目相关游戏试玩跟进</t>
-    </r>
-  </si>
-  <si>
     <t>工作日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -832,6 +811,46 @@
       </rPr>
       <t>休息</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00-17:00 Design</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">18:00-19:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目学习实践</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">17:00-18:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目相关游戏试玩跟进</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:30-12:30 Design</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1444,10 +1463,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1458,57 +1477,57 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25">
       <c r="A2" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.25">
       <c r="A3" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.25">
       <c r="A4" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.25">
       <c r="A5" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.25">
@@ -1516,10 +1535,10 @@
         <v>37</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.25">
@@ -1527,102 +1546,107 @@
         <v>38</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.25">
       <c r="A8" s="5" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.25">
       <c r="A9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15">
       <c r="A10" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15">
       <c r="A11" s="5" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15">
       <c r="A12" s="5" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15">
       <c r="A13" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15">
       <c r="A14" s="5" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15">
       <c r="A15" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15">
-      <c r="A16" s="4" t="s">
-        <v>47</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="14.25">
+      <c r="A16" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15">
       <c r="A17" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15">
+      <c r="A18" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Coding" sheetId="2" r:id="rId1"/>
@@ -1261,7 +1261,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -1285,12 +1287,12 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -1465,7 +1467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Coding" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="70">
   <si>
     <t>liaoxuefeng js</t>
   </si>
@@ -819,6 +819,26 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">17:00-18:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目相关游戏试玩跟进</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:30-12:30 Design</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">18:00-19:00 </t>
     </r>
     <r>
@@ -829,28 +849,8 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>项目学习实践</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">17:00-18:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>项目相关游戏试玩跟进</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10:30-12:30 Design</t>
+      <t>项目原型实践</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1261,7 +1261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1467,8 +1467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1556,7 +1556,7 @@
     </row>
     <row r="8" spans="1:3" ht="14.25">
       <c r="A8" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>58</v>
@@ -1600,7 +1600,7 @@
     </row>
     <row r="12" spans="1:3" ht="15">
       <c r="A12" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>53</v>
@@ -1611,7 +1611,7 @@
     </row>
     <row r="13" spans="1:3" ht="15">
       <c r="A13" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>44</v>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Coding" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
   <si>
     <t>liaoxuefeng js</t>
   </si>
@@ -851,6 +851,10 @@
       </rPr>
       <t>项目原型实践</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小程序官方教程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1259,10 +1263,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1276,190 +1280,196 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>32</v>
+      <c r="A2" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A15" t="s">
+    <row r="16" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="2" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
+      <c r="B27" s="3"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1467,7 +1477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -1266,7 +1266,7 @@
   <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1301,27 +1301,27 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:1">

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01F9A24-3B37-43A1-87B1-0C9009368928}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coding" sheetId="2" r:id="rId1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
   <si>
     <t>liaoxuefeng js</t>
   </si>
@@ -109,10 +110,6 @@
   </si>
   <si>
     <t>w3school js 参考手册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>w3cschool js</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -861,8 +858,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -977,7 +974,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1052,6 +1049,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1087,6 +1101,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1262,207 +1293,202 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="31.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="14.25" customHeight="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="2" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1474,191 +1500,191 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="35.625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="25.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.25">
-      <c r="A2" s="5" t="s">
+      <c r="B14" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.25">
-      <c r="A3" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14.25">
-      <c r="A4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="14.25">
-      <c r="A5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="14.25">
-      <c r="A6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="14.25">
-      <c r="A7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="14.25">
-      <c r="A8" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="14.25">
-      <c r="A9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15">
-      <c r="A10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15">
-      <c r="A11" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15">
-      <c r="A12" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15">
-      <c r="A13" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15">
-      <c r="A14" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15">
-      <c r="A15" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="14.25">
-      <c r="A16" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="15">
-      <c r="A17" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="15">
-      <c r="A18" s="4" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01F9A24-3B37-43A1-87B1-0C9009368928}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Coding" sheetId="2" r:id="rId1"/>
@@ -16,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="73">
   <si>
     <t>liaoxuefeng js</t>
   </si>
@@ -197,17 +196,65 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">14:00-15:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>看游戏原型</t>
+      <t xml:space="preserve">7:30-9:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目学习实践</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7:00-7:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>读书</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6:00-7:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>杂事</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4:50-6:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运动</t>
     </r>
     <r>
       <rPr>
@@ -226,91 +273,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>美术</t>
-    </r>
-  </si>
-  <si>
-    <t>工作日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">7:30-9:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>项目学习实践</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">7:00-7:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>读书</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">22:00-23:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>娱乐玩游戏</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6:00-7:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>杂事</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">4:50-6:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>运动</t>
+      <t>想事</t>
     </r>
     <r>
       <rPr>
@@ -319,17 +282,43 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>想事</t>
+      <t xml:space="preserve"> / ideas</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00-9:30 news</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9:30-11:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扒带</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8:00-9:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运动</t>
     </r>
     <r>
       <rPr>
@@ -338,59 +327,17 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> / ideas</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">23:00-4:50 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>睡</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9:00-9:30 news</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">9:30-11:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>扒带</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">8:00-9:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>运动</t>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>想事</t>
     </r>
     <r>
       <rPr>
@@ -399,17 +346,23 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>想事</t>
+      <t xml:space="preserve"> / ideas</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">20:30-21:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通勤</t>
     </r>
     <r>
       <rPr>
@@ -418,23 +371,49 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> / ideas</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6:00-7:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>通勤</t>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>听英语</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2:00-8:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>睡</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11:00-12:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>午饭</t>
     </r>
     <r>
       <rPr>
@@ -453,7 +432,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>杂事</t>
+      <t>影视</t>
     </r>
     <r>
       <rPr>
@@ -472,23 +451,55 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>听英语</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">20:30-21:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>通勤</t>
+      <t>杂事</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14:00-14:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>读书</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14:30-16:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目学习实践</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">19:00-20:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参考游戏、拓展游戏体验</t>
     </r>
     <r>
       <rPr>
@@ -507,23 +518,67 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>听英语</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">21:00-22:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>学音乐</t>
+      <t>休息</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00-17:00 Design</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">17:00-18:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目相关游戏试玩跟进</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:30-12:30 Design</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">18:00-19:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目原型实践</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小程序官方教程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6:00-7:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通勤</t>
     </r>
     <r>
       <rPr>
@@ -542,76 +597,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>实践</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">23:00-2:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>娱乐</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2:00-8:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>睡</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">17:30-21:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>娱乐玩游戏</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">11:00-12:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>午饭</t>
+      <t>听英语</t>
     </r>
     <r>
       <rPr>
@@ -630,7 +616,129 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>影视</t>
+      <t>杂事</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">17:30-21:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>娱乐玩游戏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">22:00-23:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>娱乐玩游戏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">22:00-23:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>娱乐玩游戏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工作日</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周六</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周日</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9:30-11:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扒带</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">23:00-23:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学音乐</t>
     </r>
     <r>
       <rPr>
@@ -649,23 +757,71 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>杂事</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">11:00-12:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>午饭</t>
+      <t>音乐制作</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">21:00-22:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>练琴</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">23:30-2:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>娱乐</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">23:30-4:50 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>睡</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">23:00-23:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学音乐</t>
     </r>
     <r>
       <rPr>
@@ -684,7 +840,23 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>影视</t>
+      <t>音乐制作</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14:00-15:00 ideas </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>看游戏原型</t>
     </r>
     <r>
       <rPr>
@@ -703,13 +875,13 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>杂事</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">14:00-17:30 </t>
+      <t>美术</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14:00-17:30 Unity C# / </t>
     </r>
     <r>
       <rPr>
@@ -725,39 +897,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">14:00-14:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>读书</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">14:30-16:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>项目学习实践</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">16:00-17:30 </t>
+      <t xml:space="preserve">16:00-17:30 Unity C# / </t>
     </r>
     <r>
       <rPr>
@@ -769,97 +909,14 @@
       </rPr>
       <t>自由</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周六</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">19:00-20:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>参考游戏、拓展游戏体验</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>休息</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15:00-17:00 Design</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">17:00-18:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>项目相关游戏试玩跟进</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10:30-12:30 Design</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">18:00-19:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>项目原型实践</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小程序官方教程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -901,28 +958,26 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -954,8 +1009,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -974,7 +1029,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1049,23 +1104,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1101,23 +1139,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1293,201 +1314,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="31.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
+      <c r="A1" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:1" ht="14.25" customHeight="1">
       <c r="A15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:1">
       <c r="A42" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:1">
       <c r="A43" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:1">
       <c r="A46" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:1">
       <c r="A47" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:1">
       <c r="A48" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1">
       <c r="A51" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1">
       <c r="A52" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1">
       <c r="A53" t="s">
         <v>24</v>
       </c>
@@ -1500,108 +1521,109 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="35.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.375" style="4" customWidth="1"/>
+    <col min="2" max="3" width="25.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="35.5" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="B4" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="C8" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
         <v>38</v>
       </c>
@@ -1609,82 +1631,93 @@
         <v>38</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="4" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="B13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="B16" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="82">
   <si>
     <t>liaoxuefeng js</t>
   </si>
@@ -909,6 +909,42 @@
       </rPr>
       <t>自由</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影视剧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>娱乐节目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>social</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出去走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5h</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1000,7 +1036,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1011,6 +1047,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1522,10 +1559,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25"/>
@@ -1720,6 +1757,62 @@
         <v>68</v>
       </c>
     </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="8"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="8"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="84">
   <si>
     <t>liaoxuefeng js</t>
   </si>
@@ -945,6 +945,14 @@
   </si>
   <si>
     <t>1.5h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健身</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1559,10 +1567,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25"/>
@@ -1813,6 +1821,16 @@
         <v>78</v>
       </c>
     </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -196,38 +196,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">7:30-9:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>项目学习实践</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">7:00-7:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>读书</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">6:00-7:00 </t>
     </r>
     <r>
@@ -457,38 +425,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">14:00-14:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>读书</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">14:30-16:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>项目学习实践</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">19:00-20:30 </t>
     </r>
     <r>
@@ -953,6 +889,70 @@
   </si>
   <si>
     <t>健身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8:30-9:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>读书</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7:00-8:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目学习实践</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14:00-15:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目学习实践</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">15:30-16:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>读书</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1373,7 +1373,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -1570,7 +1570,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25"/>
@@ -1582,57 +1582,57 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1640,7 +1640,7 @@
         <v>36</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>38</v>
@@ -1651,21 +1651,21 @@
         <v>37</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1676,113 +1676,113 @@
         <v>38</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="C13" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -1790,17 +1790,17 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -1808,27 +1808,27 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -1570,7 +1570,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25"/>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Coding" sheetId="2" r:id="rId1"/>
@@ -1362,8 +1362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1377,7 +1377,7 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1569,8 +1569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25"/>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
   <si>
     <t>liaoxuefeng js</t>
   </si>
@@ -496,10 +496,6 @@
       </rPr>
       <t>项目原型实践</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小程序官方教程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1360,7 +1356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
@@ -1373,188 +1369,183 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="6" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="6" t="s">
-        <v>31</v>
+      <c r="A2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="14.25" customHeight="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
         <v>30</v>
       </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="3"/>
+    </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3"/>
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1582,13 +1573,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1604,7 +1595,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>39</v>
@@ -1615,21 +1606,21 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>46</v>
@@ -1654,7 +1645,7 @@
         <v>42</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1665,7 +1656,7 @@
         <v>46</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1676,18 +1667,18 @@
         <v>38</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="C10" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1695,10 +1686,10 @@
         <v>48</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1706,10 +1697,10 @@
         <v>49</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1717,10 +1708,10 @@
         <v>51</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1728,10 +1719,10 @@
         <v>47</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1739,12 +1730,12 @@
         <v>44</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>45</v>
@@ -1752,37 +1743,37 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -1790,17 +1781,17 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -1808,27 +1799,27 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -15,23 +15,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
   <si>
     <t>liaoxuefeng js</t>
   </si>
   <si>
-    <t>runoob html</t>
-  </si>
-  <si>
-    <t>runoob html5</t>
-  </si>
-  <si>
-    <t>runoob css</t>
-  </si>
-  <si>
-    <t>siki c# 基础练习题</t>
-  </si>
-  <si>
     <t>c#入门经典</t>
   </si>
   <si>
@@ -96,26 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>runoob css3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>runoob js 实例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>runoob js 参考手册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>w3school js 参考手册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>w3school js HTML DOM 实例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JavaScript语言入门教程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,15 +92,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>weapp-adapter库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JavaScript语言精粹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>w3cschool js 其它</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1040,9 +1000,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1356,10 +1315,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1367,186 +1326,130 @@
     <col min="1" max="1" width="31.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+    <row r="1" spans="1:2">
+      <c r="A1" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1566,260 +1469,260 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="35.375" style="4" customWidth="1"/>
-    <col min="2" max="3" width="25.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="35.5" style="4"/>
+    <col min="1" max="1" width="35.375" style="3" customWidth="1"/>
+    <col min="2" max="3" width="25.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="35.5" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="7" t="s">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="7" t="s">
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="5" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="5" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="7"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="7"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="7" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="8"/>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="8"/>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="8" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Coding" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="72">
   <si>
     <t>liaoxuefeng js</t>
   </si>
@@ -419,43 +419,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>15:00-17:00 Design</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">17:00-18:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>项目相关游戏试玩跟进</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10:30-12:30 Design</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">18:00-19:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>项目原型实践</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -703,17 +667,17 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">23:00-23:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>学音乐</t>
+      <t xml:space="preserve">14:00-15:00 ideas </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>看游戏原型</t>
     </r>
     <r>
       <rPr>
@@ -732,41 +696,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>音乐制作</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">14:00-15:00 ideas </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>看游戏原型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>美术</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -909,6 +838,34 @@
       </rPr>
       <t>读书</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00-18:00 Design</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">18:00-19:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目相关游戏试玩跟进</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读书</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1317,7 +1274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1461,10 +1418,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25"/>
@@ -1476,13 +1433,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1498,7 +1455,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>28</v>
@@ -1509,21 +1466,21 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>35</v>
@@ -1548,18 +1505,18 @@
         <v>31</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1570,113 +1527,108 @@
         <v>27</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="C13" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="4" t="s">
-        <v>50</v>
+      <c r="A16" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="3" t="s">
-        <v>44</v>
+      <c r="A17" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="3" t="s">
-        <v>52</v>
+      <c r="A18" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -1684,17 +1636,17 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -1702,27 +1654,37 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="7" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
   <si>
     <t>liaoxuefeng js</t>
   </si>
@@ -584,17 +584,49 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">23:00-23:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>学音乐</t>
+      <t xml:space="preserve">23:30-2:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>娱乐</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">23:30-4:50 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>睡</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14:00-15:00 ideas </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>看游戏原型</t>
     </r>
     <r>
       <rPr>
@@ -613,7 +645,167 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>音乐制作</t>
+      <t>美术</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14:00-17:30 Unity C# / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自由</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">16:00-17:30 Unity C# / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自由</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影视剧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>娱乐节目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>social</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出去走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7:00-8:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目学习实践</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14:00-15:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目学习实践</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00-18:00 Design</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">18:00-19:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目相关游戏试玩跟进</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8:30-9:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>读专业书</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8:30-9:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>读专业书</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">15:30-16:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>读专业书</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -629,55 +821,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>练琴</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">23:30-2:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>娱乐</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">23:30-4:50 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>睡</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">14:00-15:00 ideas </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>看游戏原型</t>
+      <t>学音乐</t>
     </r>
     <r>
       <rPr>
@@ -696,176 +840,43 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>美术</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">14:00-17:30 Unity C# / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>自由</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">16:00-17:30 Unity C# / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>自由</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>博学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影视剧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>娱乐节目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>social</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出去走</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>健身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">8:30-9:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>读书</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">7:00-8:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>项目学习实践</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">14:00-15:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>项目学习实践</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">15:30-16:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>读书</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15:00-18:00 Design</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">18:00-19:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>项目相关游戏试玩跟进</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读书</t>
+      <t>音乐制作</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">23:00-23:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阅读</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>视频</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1418,10 +1429,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25"/>
@@ -1466,10 +1477,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>45</v>
@@ -1477,10 +1488,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>35</v>
@@ -1505,7 +1516,7 @@
         <v>31</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1516,7 +1527,7 @@
         <v>35</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1527,15 +1538,15 @@
         <v>27</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>39</v>
@@ -1543,21 +1554,21 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>40</v>
@@ -1571,7 +1582,7 @@
         <v>40</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1579,18 +1590,18 @@
         <v>33</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1603,89 +1614,70 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="4" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="7" t="s">
-        <v>55</v>
-      </c>
+      <c r="A25" s="7"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="7"/>
+      <c r="A26" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="3" t="s">
-        <v>61</v>
+      <c r="A27" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="7"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="7"/>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="3" t="s">
-        <v>58</v>
+      <c r="A32" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="7" t="s">
-        <v>63</v>
-      </c>
+      <c r="A35" s="7"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="7" t="s">
-        <v>71</v>
-      </c>
+      <c r="A38" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
   <si>
     <t>liaoxuefeng js</t>
   </si>
@@ -763,65 +763,17 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">8:30-9:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>读专业书</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">8:30-9:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>读专业书</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">15:30-16:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>读专业书</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">21:00-22:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>学音乐</t>
+      <t xml:space="preserve">23:00-23:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阅读</t>
     </r>
     <r>
       <rPr>
@@ -840,23 +792,39 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>音乐制作</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">23:00-23:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>阅读</t>
+      <t>视频</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7:00-8:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目学习实践</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">21:00-22:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学音乐</t>
     </r>
     <r>
       <rPr>
@@ -875,7 +843,90 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>视频</t>
+      <t>实践</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">21:00-22:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学音乐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实践</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8:30-9:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>专业阅读</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8:30-9:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>专业阅读</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">15:30-16:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>专业阅读</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1432,7 +1483,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25"/>
@@ -1477,7 +1528,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>58</v>
@@ -1488,10 +1539,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>35</v>
@@ -1527,7 +1578,7 @@
         <v>35</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1560,7 +1611,7 @@
         <v>39</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1568,7 +1619,7 @@
         <v>61</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>40</v>
@@ -1582,7 +1633,7 @@
         <v>40</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1590,7 +1641,7 @@
         <v>33</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>47</v>
@@ -1614,7 +1665,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -419,10 +419,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10:30-12:30 Design</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">6:00-7:00 </t>
     </r>
@@ -742,10 +738,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>15:00-18:00 Design</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">18:00-19:00 </t>
     </r>
@@ -927,6 +919,76 @@
         <charset val="134"/>
       </rPr>
       <t>专业阅读</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10:30-12:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">15:00-18:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1483,7 +1545,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25"/>
@@ -1495,13 +1557,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1517,7 +1579,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>28</v>
@@ -1528,21 +1590,21 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>35</v>
@@ -1567,18 +1629,18 @@
         <v>31</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1589,40 +1651,40 @@
         <v>27</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1630,10 +1692,10 @@
         <v>36</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1641,23 +1703,23 @@
         <v>33</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>34</v>
@@ -1665,27 +1727,27 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -1693,17 +1755,17 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:1">
@@ -1711,17 +1773,17 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:1">

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="70">
   <si>
     <t>liaoxuefeng js</t>
   </si>
@@ -152,9 +152,6 @@
     </r>
   </si>
   <si>
-    <t>12:30-14:00 Coding</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">6:00-7:00 </t>
     </r>
@@ -707,38 +704,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">7:00-8:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>项目学习实践</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">14:00-15:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>项目学习实践</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">18:00-19:00 </t>
     </r>
     <r>
@@ -790,22 +755,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">7:00-8:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>项目学习实践</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">21:00-22:00 </t>
     </r>
     <r>
@@ -990,6 +939,50 @@
       </rPr>
       <t>开发</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7:00-8:30 Coding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12:30-14:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目学习实践</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7:00-8:30 Coding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12:30-14:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目学习实践</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00-15:30 Coding</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1545,7 +1538,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25"/>
@@ -1557,57 +1550,57 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1615,10 +1608,10 @@
         <v>25</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1626,128 +1619,128 @@
         <v>26</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -1755,17 +1748,17 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:1">
@@ -1773,17 +1766,17 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:1">

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Coding" sheetId="2" r:id="rId1"/>
@@ -1508,7 +1508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1574,8 +1574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25"/>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Coding" sheetId="2" r:id="rId1"/>
     <sheet name="日常" sheetId="3" r:id="rId2"/>
+    <sheet name="日常 冬" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="65">
   <si>
     <t>liaoxuefeng js</t>
   </si>
@@ -1073,6 +1074,196 @@
   </si>
   <si>
     <t>c++ primer plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">23:00-5:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>睡</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">23:00-5:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>睡</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">23:00-5:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>睡</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5:00-6:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>想事</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / ideas</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5:00-6:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通勤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>听英语</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>杂事</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6:00-7:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>想事</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / ideas</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1509,7 +1700,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1574,7 +1765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
@@ -1838,4 +2029,274 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="34.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="29.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="29.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="31.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="35.5" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="10"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="7"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="7"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="7"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/plan.xlsx
+++ b/plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="76">
   <si>
     <t>liaoxuefeng js</t>
   </si>
@@ -1265,6 +1265,178 @@
       <t xml:space="preserve"> / ideas</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">18:00-19:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参考游戏、拓展游戏体验</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">19:30-20:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通勤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>听英语</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">20:00-21:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>娱乐玩游戏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">21:00-22:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学音乐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实践</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22:00-22:30 social</t>
+  </si>
+  <si>
+    <t>22:00-22:30 social</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">15:00-16:30 Unity C# / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自由</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">15:00-16:30 Unity C# / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自由</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">16:30-21:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>娱乐玩游戏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:30-21:00 娱乐玩游戏</t>
+  </si>
+  <si>
+    <t>21:00-22:00 学音乐 / 实践</t>
   </si>
 </sst>
 </file>
@@ -2036,7 +2208,7 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25"/>
@@ -2066,7 +2238,9 @@
       <c r="B2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
@@ -2075,7 +2249,9 @@
       <c r="B3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4">
@@ -2162,79 +2338,77 @@
         <v>27</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>37</v>
+        <v>66</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>55</v>
+        <v>67</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>61</v>
+        <v>68</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>40</v>
+        <v>70</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>44</v>
-      </c>
+      <c r="B17" s="9"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:2">

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Coding" sheetId="2" r:id="rId1"/>
@@ -2208,7 +2208,7 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25"/>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Coding" sheetId="2" r:id="rId1"/>
     <sheet name="日常" sheetId="3" r:id="rId2"/>
     <sheet name="日常 冬" sheetId="4" r:id="rId3"/>
+    <sheet name=" 日常 加班 冬" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="80">
   <si>
     <t>liaoxuefeng js</t>
   </si>
@@ -1437,6 +1438,127 @@
   </si>
   <si>
     <t>21:00-22:00 学音乐 / 实践</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">19:30-21:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加班</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">21:00-21:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通勤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>听英语</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">21:30-22:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学音乐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实践</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12:30-14:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目学习实践</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>娱乐玩游戏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1872,7 +1994,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2207,8 +2329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25"/>
@@ -2473,4 +2595,276 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="34.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="29.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="29.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="31.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="35.5" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="9"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="7"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="7"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="7"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/plan.xlsx
+++ b/plan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="79">
   <si>
     <t>liaoxuefeng js</t>
   </si>
@@ -467,10 +467,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7:00-8:30 Coding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">12:30-14:00 </t>
     </r>
@@ -487,10 +483,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7:00-8:30 Coding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">12:30-14:00 </t>
     </r>
@@ -1557,6 +1549,22 @@
         <charset val="134"/>
       </rPr>
       <t>娱乐玩游戏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7:00-8:30 Coding / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发技术</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2014,7 +2022,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2045,7 +2053,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2060,7 +2068,7 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25"/>
@@ -2077,10 +2085,10 @@
         <v>14</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2097,17 +2105,17 @@
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="4"/>
@@ -2120,7 +2128,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D5" s="4"/>
     </row>
@@ -2144,7 +2152,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D7" s="4"/>
     </row>
@@ -2156,18 +2164,18 @@
         <v>12</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="C9" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2175,10 +2183,10 @@
         <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2186,10 +2194,10 @@
         <v>27</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2197,68 +2205,68 @@
         <v>23</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2330,7 +2338,7 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25"/>
@@ -2347,41 +2355,41 @@
         <v>14</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="4"/>
@@ -2394,7 +2402,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D5" s="4"/>
     </row>
@@ -2418,7 +2426,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D7" s="4"/>
     </row>
@@ -2430,18 +2438,18 @@
         <v>12</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2449,10 +2457,10 @@
         <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2460,77 +2468,77 @@
         <v>27</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="C13" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>67</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B17" s="9"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2602,7 +2610,7 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25"/>
@@ -2619,41 +2627,41 @@
         <v>14</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="4"/>
@@ -2666,7 +2674,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D5" s="4"/>
     </row>
@@ -2690,7 +2698,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D7" s="4"/>
     </row>
@@ -2702,18 +2710,18 @@
         <v>12</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2721,10 +2729,10 @@
         <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2732,77 +2740,77 @@
         <v>27</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B17" s="9"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:2">

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -1158,7 +1158,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">7:30-8:30 </t>
+      <t xml:space="preserve">7:45-8:30 </t>
     </r>
     <r>
       <rPr>
@@ -1183,7 +1183,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">7:00-7:30 </t>
+      <t xml:space="preserve">7:00-7:45 </t>
     </r>
     <r>
       <rPr>
@@ -1697,7 +1697,7 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25"/>
@@ -1995,7 +1995,7 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25"/>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -1697,7 +1697,7 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25"/>
@@ -1772,9 +1772,6 @@
       <c r="B7" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
@@ -1784,7 +1781,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1795,7 +1792,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1806,7 +1803,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1817,7 +1814,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1828,7 +1825,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1839,7 +1836,7 @@
         <v>60</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1850,7 +1847,7 @@
         <v>61</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1860,8 +1857,8 @@
       <c r="B15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>45</v>
+      <c r="C15" s="11" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1872,7 +1869,7 @@
         <v>44</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1883,7 +1880,7 @@
         <v>39</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1893,8 +1890,8 @@
       <c r="B18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>34</v>
+      <c r="C18" s="10" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1904,8 +1901,8 @@
       <c r="B19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>59</v>
+      <c r="C19" s="11" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1914,6 +1911,9 @@
       </c>
       <c r="B20" s="3" t="s">
         <v>55</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1995,7 +1995,7 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25"/>
@@ -2070,9 +2070,6 @@
       <c r="B7" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
@@ -2082,7 +2079,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2093,7 +2090,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2104,7 +2101,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2115,7 +2112,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2126,7 +2123,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2137,7 +2134,7 @@
         <v>60</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2148,7 +2145,7 @@
         <v>61</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2158,8 +2155,8 @@
       <c r="B15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>45</v>
+      <c r="C15" s="11" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2170,7 +2167,7 @@
         <v>44</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2181,7 +2178,7 @@
         <v>39</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2191,8 +2188,8 @@
       <c r="B18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>34</v>
+      <c r="C18" s="10" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2202,8 +2199,8 @@
       <c r="B19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>59</v>
+      <c r="C19" s="11" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2212,6 +2209,9 @@
       </c>
       <c r="B20" s="3" t="s">
         <v>55</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:3">

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -1158,32 +1158,32 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">7:00-7:45 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发技术</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / Coding</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">7:45-8:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开发技术</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / Coding</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">7:00-7:45 </t>
     </r>
     <r>
       <rPr>
@@ -1697,7 +1697,7 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25"/>
@@ -1759,18 +1759,18 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1995,7 +1995,7 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25"/>
@@ -2057,18 +2057,18 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:3">

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10123"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D235B6A-44EA-2A49-988B-BE83B62EF435}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="19620" windowHeight="16380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coding" sheetId="2" r:id="rId1"/>
     <sheet name="日常" sheetId="3" r:id="rId2"/>
     <sheet name="日常 加班" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1182,7 +1190,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -1323,7 +1331,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1398,6 +1406,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1433,6 +1458,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1608,16 +1650,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1674,17 +1716,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="35.5" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="25.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="35.5" style="3"/>
   </cols>
   <sheetData>
@@ -1699,7 +1741,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="16">
       <c r="A2" s="4" t="s">
         <v>50</v>
       </c>
@@ -1710,7 +1752,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="16">
       <c r="A3" s="4" t="s">
         <v>51</v>
       </c>
@@ -1730,7 +1772,7 @@
       </c>
       <c r="C4" s="10"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" ht="16">
       <c r="A5" s="4" t="s">
         <v>52</v>
       </c>
@@ -1738,7 +1780,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" ht="16">
       <c r="A6" s="4" t="s">
         <v>63</v>
       </c>
@@ -1746,7 +1788,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" ht="16">
       <c r="A7" s="4" t="s">
         <v>64</v>
       </c>
@@ -1754,7 +1796,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="16">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
@@ -1765,7 +1807,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" ht="16">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1776,7 +1818,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" ht="16">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1787,7 +1829,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="16">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
@@ -1798,7 +1840,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" ht="16">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
@@ -1809,7 +1851,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="16">
       <c r="A13" s="4" t="s">
         <v>65</v>
       </c>
@@ -1820,7 +1862,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" ht="16">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
@@ -1831,7 +1873,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" ht="16">
       <c r="A15" s="4" t="s">
         <v>55</v>
       </c>
@@ -1853,7 +1895,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="16">
       <c r="A17" s="4" t="s">
         <v>36</v>
       </c>
@@ -1864,7 +1906,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" ht="16">
       <c r="A18" s="4" t="s">
         <v>37</v>
       </c>
@@ -1875,7 +1917,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" ht="16">
       <c r="A19" s="4" t="s">
         <v>38</v>
       </c>
@@ -1897,9 +1939,13 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" ht="16">
       <c r="A21" s="4" t="s">
         <v>24</v>
+      </c>
+      <c r="B21" s="3">
+        <f>1+1</f>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1972,17 +2018,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="35.5" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="25.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="35.5" style="3"/>
   </cols>
   <sheetData>
@@ -1997,7 +2043,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="16">
       <c r="A2" s="4" t="s">
         <v>50</v>
       </c>
@@ -2008,7 +2054,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="16">
       <c r="A3" s="4" t="s">
         <v>51</v>
       </c>
@@ -2028,7 +2074,7 @@
       </c>
       <c r="C4" s="10"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" ht="16">
       <c r="A5" s="4" t="s">
         <v>52</v>
       </c>
@@ -2036,7 +2082,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" ht="16">
       <c r="A6" s="4" t="s">
         <v>63</v>
       </c>
@@ -2044,7 +2090,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" ht="16">
       <c r="A7" s="4" t="s">
         <v>64</v>
       </c>
@@ -2052,7 +2098,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="16">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
@@ -2063,7 +2109,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" ht="16">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -2074,7 +2120,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" ht="16">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -2085,7 +2131,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="16">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
@@ -2096,7 +2142,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" ht="16">
       <c r="A12" s="4" t="s">
         <v>49</v>
       </c>
@@ -2107,7 +2153,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="16">
       <c r="A13" s="4" t="s">
         <v>65</v>
       </c>
@@ -2118,7 +2164,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" ht="16">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
@@ -2129,7 +2175,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" ht="16">
       <c r="A15" s="4" t="s">
         <v>55</v>
       </c>
@@ -2151,7 +2197,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="16">
       <c r="A17" s="4" t="s">
         <v>46</v>
       </c>
@@ -2162,7 +2208,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" ht="16">
       <c r="A18" s="4" t="s">
         <v>47</v>
       </c>
@@ -2173,7 +2219,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" ht="16">
       <c r="A19" s="4" t="s">
         <v>48</v>
       </c>
@@ -2195,7 +2241,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" ht="16">
       <c r="A21" s="4" t="s">
         <v>24</v>
       </c>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -1,30 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D235B6A-44EA-2A49-988B-BE83B62EF435}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BA2F62-3EA7-43F0-A90E-9164A222C030}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="19620" windowHeight="16380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coding" sheetId="2" r:id="rId1"/>
     <sheet name="日常" sheetId="3" r:id="rId2"/>
     <sheet name="日常 加班" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="67">
   <si>
     <t>liaoxuefeng js</t>
   </si>
@@ -1184,6 +1177,10 @@
       </rPr>
       <t>看游戏原型</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1191,7 +1188,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1657,53 +1654,53 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -1720,17 +1717,17 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="35.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="25.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="35.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
@@ -1741,7 +1738,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>50</v>
       </c>
@@ -1752,7 +1749,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>51</v>
       </c>
@@ -1763,7 +1760,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>53</v>
       </c>
@@ -1772,7 +1769,7 @@
       </c>
       <c r="C4" s="10"/>
     </row>
-    <row r="5" spans="1:3" ht="16">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>52</v>
       </c>
@@ -1780,7 +1777,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>63</v>
       </c>
@@ -1788,7 +1785,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>64</v>
       </c>
@@ -1796,7 +1793,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
@@ -1807,7 +1804,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1818,7 +1815,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1829,7 +1826,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
@@ -1840,7 +1837,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
@@ -1851,7 +1848,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>65</v>
       </c>
@@ -1862,7 +1859,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
@@ -1873,7 +1870,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>55</v>
       </c>
@@ -1884,7 +1881,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>56</v>
       </c>
@@ -1895,7 +1892,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>36</v>
       </c>
@@ -1906,7 +1903,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>37</v>
       </c>
@@ -1917,7 +1914,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>38</v>
       </c>
@@ -1928,7 +1925,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>40</v>
       </c>
@@ -1939,75 +1936,74 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="3">
-        <f>1+1</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="B21" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
     </row>
   </sheetData>
@@ -2025,14 +2021,14 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="35.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="25.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="35.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
@@ -2043,7 +2039,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>50</v>
       </c>
@@ -2054,7 +2050,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>51</v>
       </c>
@@ -2065,7 +2061,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>53</v>
       </c>
@@ -2074,7 +2070,7 @@
       </c>
       <c r="C4" s="10"/>
     </row>
-    <row r="5" spans="1:3" ht="16">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>52</v>
       </c>
@@ -2082,7 +2078,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>63</v>
       </c>
@@ -2090,7 +2086,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>64</v>
       </c>
@@ -2098,7 +2094,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
@@ -2109,7 +2105,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -2120,7 +2116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -2131,7 +2127,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
@@ -2142,7 +2138,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>49</v>
       </c>
@@ -2153,7 +2149,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>65</v>
       </c>
@@ -2164,7 +2160,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
@@ -2175,7 +2171,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>55</v>
       </c>
@@ -2186,7 +2182,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>56</v>
       </c>
@@ -2197,7 +2193,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>46</v>
       </c>
@@ -2208,7 +2204,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>47</v>
       </c>
@@ -2219,7 +2215,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>48</v>
       </c>
@@ -2230,7 +2226,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>40</v>
       </c>
@@ -2241,83 +2237,83 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
     </row>
   </sheetData>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10123"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BA2F62-3EA7-43F0-A90E-9164A222C030}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB9ADD1-165F-D34C-BEDB-198FC23A2C72}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28120" windowHeight="16400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coding" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="66">
   <si>
     <t>liaoxuefeng js</t>
   </si>
@@ -1177,10 +1177,6 @@
       </rPr>
       <t>看游戏原型</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1188,7 +1184,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1654,53 +1650,53 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -1717,17 +1713,17 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="35.5" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="25.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="35.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
@@ -1738,7 +1734,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="16">
       <c r="A2" s="4" t="s">
         <v>50</v>
       </c>
@@ -1749,7 +1745,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="16">
       <c r="A3" s="4" t="s">
         <v>51</v>
       </c>
@@ -1760,7 +1756,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>53</v>
       </c>
@@ -1769,7 +1765,7 @@
       </c>
       <c r="C4" s="10"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="16">
       <c r="A5" s="4" t="s">
         <v>52</v>
       </c>
@@ -1777,7 +1773,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="16">
       <c r="A6" s="4" t="s">
         <v>63</v>
       </c>
@@ -1785,7 +1781,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="16">
       <c r="A7" s="4" t="s">
         <v>64</v>
       </c>
@@ -1793,7 +1789,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="16">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
@@ -1804,7 +1800,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="16">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1815,7 +1811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="16">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1826,7 +1822,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="16">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
@@ -1837,7 +1833,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="16">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
@@ -1848,7 +1844,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="16">
       <c r="A13" s="4" t="s">
         <v>65</v>
       </c>
@@ -1859,7 +1855,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="16">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
@@ -1870,7 +1866,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="16">
       <c r="A15" s="4" t="s">
         <v>55</v>
       </c>
@@ -1881,7 +1877,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
         <v>56</v>
       </c>
@@ -1892,7 +1888,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="16">
       <c r="A17" s="4" t="s">
         <v>36</v>
       </c>
@@ -1903,7 +1899,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="16">
       <c r="A18" s="4" t="s">
         <v>37</v>
       </c>
@@ -1914,7 +1910,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="16">
       <c r="A19" s="4" t="s">
         <v>38</v>
       </c>
@@ -1925,7 +1921,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
         <v>40</v>
       </c>
@@ -1936,74 +1932,71 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="16">
       <c r="A21" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="7"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" s="7"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1">
       <c r="A40" s="7"/>
     </row>
   </sheetData>
@@ -2021,14 +2014,14 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="35.5" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="25.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="35.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
@@ -2039,7 +2032,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="16">
       <c r="A2" s="4" t="s">
         <v>50</v>
       </c>
@@ -2050,7 +2043,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="16">
       <c r="A3" s="4" t="s">
         <v>51</v>
       </c>
@@ -2061,7 +2054,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>53</v>
       </c>
@@ -2070,7 +2063,7 @@
       </c>
       <c r="C4" s="10"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="16">
       <c r="A5" s="4" t="s">
         <v>52</v>
       </c>
@@ -2078,7 +2071,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="16">
       <c r="A6" s="4" t="s">
         <v>63</v>
       </c>
@@ -2086,7 +2079,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="16">
       <c r="A7" s="4" t="s">
         <v>64</v>
       </c>
@@ -2094,7 +2087,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="16">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
@@ -2105,7 +2098,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="16">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -2116,7 +2109,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="16">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -2127,7 +2120,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="16">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
@@ -2138,7 +2131,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="16">
       <c r="A12" s="4" t="s">
         <v>49</v>
       </c>
@@ -2149,7 +2142,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="16">
       <c r="A13" s="4" t="s">
         <v>65</v>
       </c>
@@ -2160,7 +2153,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="16">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
@@ -2171,7 +2164,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="16">
       <c r="A15" s="4" t="s">
         <v>55</v>
       </c>
@@ -2182,7 +2175,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
         <v>56</v>
       </c>
@@ -2193,7 +2186,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="16">
       <c r="A17" s="4" t="s">
         <v>46</v>
       </c>
@@ -2204,7 +2197,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="16">
       <c r="A18" s="4" t="s">
         <v>47</v>
       </c>
@@ -2215,7 +2208,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="16">
       <c r="A19" s="4" t="s">
         <v>48</v>
       </c>
@@ -2226,7 +2219,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
         <v>40</v>
       </c>
@@ -2237,83 +2230,83 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="16">
       <c r="A21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="7"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1">
       <c r="A39" s="7"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1">
       <c r="A42" s="7"/>
     </row>
   </sheetData>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10123"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB9ADD1-165F-D34C-BEDB-198FC23A2C72}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9C1DB2-AF03-4948-8ABE-0D7AEC141DAF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28120" windowHeight="16400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="18220" windowHeight="16400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coding" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="64">
   <si>
     <t>liaoxuefeng js</t>
   </si>
@@ -25,9 +25,6 @@
     <t>c#入门经典</t>
   </si>
   <si>
-    <t>c primer plus</t>
-  </si>
-  <si>
     <t>cs50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -559,10 +556,6 @@
   </si>
   <si>
     <t>TypeScript</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c++ primer plus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1646,8 +1639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1657,17 +1650,17 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1677,7 +1670,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1687,20 +1680,12 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-    </row>
+    <row r="12" spans="1:2"/>
+    <row r="15" spans="1:2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1713,7 +1698,7 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="35.5" defaultRowHeight="15"/>
@@ -1725,236 +1710,236 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16">
       <c r="A2" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16">
       <c r="A3" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3" ht="16">
       <c r="A5" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16">
       <c r="A6" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16">
       <c r="A7" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16">
       <c r="A8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16">
       <c r="A9" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16">
       <c r="A10" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16">
       <c r="A11" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16">
       <c r="A12" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16">
       <c r="A13" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16">
       <c r="A14" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>60</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16">
       <c r="A15" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16">
       <c r="A17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="C17" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16">
       <c r="A18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16">
       <c r="A19" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16">
       <c r="A21" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1962,17 +1947,17 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -1980,17 +1965,17 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:1">
@@ -2023,222 +2008,222 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16">
       <c r="A2" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16">
       <c r="A3" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3" ht="16">
       <c r="A5" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16">
       <c r="A6" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16">
       <c r="A7" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16">
       <c r="A8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16">
       <c r="A9" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16">
       <c r="A10" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16">
       <c r="A11" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16">
       <c r="A12" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16">
       <c r="A13" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16">
       <c r="A14" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>60</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16">
       <c r="A15" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16">
       <c r="A17" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16">
       <c r="A18" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16">
       <c r="A19" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16">
       <c r="A21" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="4"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B22" s="4"/>
     </row>
@@ -2253,18 +2238,18 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27" s="4"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2272,17 +2257,17 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -2290,17 +2275,17 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:1">

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10123"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9C1DB2-AF03-4948-8ABE-0D7AEC141DAF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="18220" windowHeight="16400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="18225" windowHeight="16395" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Coding" sheetId="2" r:id="rId1"/>
@@ -1176,7 +1175,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -1317,7 +1316,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1392,23 +1391,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1444,23 +1426,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1636,16 +1601,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1684,8 +1649,6 @@
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2"/>
-    <row r="15" spans="1:2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1694,17 +1657,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="35.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="30" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="25.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="35.5" style="3"/>
   </cols>
   <sheetData>
@@ -1719,7 +1682,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16">
+    <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
         <v>48</v>
       </c>
@@ -1730,7 +1693,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16">
+    <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
         <v>49</v>
       </c>
@@ -1750,7 +1713,7 @@
       </c>
       <c r="C4" s="10"/>
     </row>
-    <row r="5" spans="1:3" ht="16">
+    <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
         <v>50</v>
       </c>
@@ -1758,7 +1721,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16">
+    <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
         <v>61</v>
       </c>
@@ -1766,7 +1729,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16">
+    <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
         <v>62</v>
       </c>
@@ -1774,7 +1737,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16">
+    <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -1785,7 +1748,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16">
+    <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1796,7 +1759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16">
+    <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -1807,7 +1770,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16">
+    <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
@@ -1818,7 +1781,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16">
+    <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
@@ -1829,7 +1792,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16">
+    <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
         <v>63</v>
       </c>
@@ -1840,7 +1803,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16">
+    <row r="14" spans="1:3">
       <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
@@ -1851,7 +1814,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16">
+    <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
         <v>53</v>
       </c>
@@ -1873,7 +1836,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16">
+    <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
         <v>34</v>
       </c>
@@ -1884,7 +1847,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16">
+    <row r="18" spans="1:3">
       <c r="A18" s="4" t="s">
         <v>35</v>
       </c>
@@ -1895,7 +1858,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16">
+    <row r="19" spans="1:3">
       <c r="A19" s="4" t="s">
         <v>36</v>
       </c>
@@ -1917,7 +1880,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16">
+    <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
         <v>23</v>
       </c>
@@ -1992,17 +1955,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="35.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="33.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="25.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="35.5" style="3"/>
   </cols>
   <sheetData>
@@ -2017,7 +1980,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16">
+    <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
         <v>48</v>
       </c>
@@ -2028,7 +1991,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16">
+    <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
         <v>49</v>
       </c>
@@ -2048,7 +2011,7 @@
       </c>
       <c r="C4" s="10"/>
     </row>
-    <row r="5" spans="1:3" ht="16">
+    <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
         <v>50</v>
       </c>
@@ -2056,7 +2019,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16">
+    <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
         <v>61</v>
       </c>
@@ -2064,7 +2027,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16">
+    <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
         <v>62</v>
       </c>
@@ -2072,7 +2035,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16">
+    <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -2083,7 +2046,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16">
+    <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -2094,7 +2057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16">
+    <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -2105,7 +2068,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16">
+    <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
@@ -2116,7 +2079,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16">
+    <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
         <v>47</v>
       </c>
@@ -2127,7 +2090,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16">
+    <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
         <v>63</v>
       </c>
@@ -2138,7 +2101,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16">
+    <row r="14" spans="1:3">
       <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
@@ -2149,7 +2112,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16">
+    <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
         <v>53</v>
       </c>
@@ -2171,7 +2134,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16">
+    <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
         <v>44</v>
       </c>
@@ -2182,7 +2145,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16">
+    <row r="18" spans="1:3">
       <c r="A18" s="4" t="s">
         <v>45</v>
       </c>
@@ -2193,7 +2156,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16">
+    <row r="19" spans="1:3">
       <c r="A19" s="4" t="s">
         <v>46</v>
       </c>
@@ -2215,7 +2178,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16">
+    <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
         <v>23</v>
       </c>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -11,12 +11,12 @@
     <sheet name="日常" sheetId="3" r:id="rId2"/>
     <sheet name="日常 加班" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="76">
   <si>
     <t>liaoxuefeng js</t>
   </si>
@@ -594,6 +594,569 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">21:00-22:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学音乐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实践</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22:00-22:30 social</t>
+  </si>
+  <si>
+    <t>22:00-22:30 social</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">15:00-16:30 Unity C# / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自由</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">15:00-16:30 Unity C# / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自由</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">16:30-21:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>娱乐玩游戏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:30-21:00 娱乐玩游戏</t>
+  </si>
+  <si>
+    <t>21:00-22:00 学音乐 / 实践</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">19:30-21:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加班</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">21:00-21:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通勤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>听英语</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">21:30-22:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学音乐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实践</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12:30-14:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目学习实践</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>娱乐玩游戏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4:30-5:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>想事</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / ideas</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5:30-6:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>洗漱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>杂事</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6:30-7:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通勤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>听英语</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6:00-6:30 Coding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">23:00-4:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>睡</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">18:00-18:45 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参考游戏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">18:45-19:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拓展游戏体验</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6:30-7:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学英语</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">23:00-4:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>睡</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14:00-14:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参考游戏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14:30-15:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拓展游戏体验</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14:00-14:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参考游戏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14:30-15:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拓展游戏体验</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7:00-7:45 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发技术</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / Coding</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7:45-8:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>美术</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14:00-15:00 ideas </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>看游戏原型</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">20:00-21:00 </t>
     </r>
     <r>
@@ -604,87 +1167,117 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
+      <t>学音乐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实践</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">21:00-22:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>娱乐玩游戏</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">21:00-22:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>学音乐</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>实践</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22:00-22:30 social</t>
-  </si>
-  <si>
-    <t>22:00-22:30 social</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">15:00-16:30 Unity C# / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>自由</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">15:00-16:30 Unity C# / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="2" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>自由</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">16:30-21:00 </t>
+      <t xml:space="preserve">7:00-8:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目学习实践</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12:30-13:15 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发技术</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / Coding</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">13:15-14:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>美术</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:30-13:15 开发技术 / Coding</t>
+  </si>
+  <si>
+    <t>13:15-14:00 美术</t>
+  </si>
+  <si>
+    <t>22:30-23:00 阅读 / 视频</t>
+  </si>
+  <si>
+    <t>23:00-4:30 睡</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">16:30-20:00 </t>
     </r>
     <r>
       <rPr>
@@ -699,477 +1292,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>16:30-21:00 娱乐玩游戏</t>
-  </si>
-  <si>
-    <t>21:00-22:00 学音乐 / 实践</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">19:30-21:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>加班</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">21:00-21:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>通勤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>听英语</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">21:30-22:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>学音乐</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>实践</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">12:30-14:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>项目学习实践</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>娱乐玩游戏</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">4:30-5:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>运动</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>想事</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / ideas</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">5:30-6:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>洗漱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>杂事</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6:30-7:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>通勤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>听英语</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6:00-6:30 Coding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">23:00-4:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>睡</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">18:00-18:45 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>参考游戏</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">18:45-19:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>拓展游戏体验</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6:30-7:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>学英语</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">23:00-4:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="2" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>睡</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">14:00-14:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>参考游戏</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">14:30-15:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>拓展游戏体验</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">14:00-14:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="2" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>参考游戏</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">14:30-15:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="2" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>拓展游戏体验</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">7:00-7:45 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开发技术</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / Coding</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">7:45-8:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>美术</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">14:00-15:00 ideas </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>看游戏原型</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>16:30-20:00 娱乐玩游戏</t>
+  </si>
+  <si>
+    <t>20:00-21:00 学音乐 / 实践</t>
+  </si>
+  <si>
+    <t>21:00-22:00 娱乐玩游戏</t>
   </si>
 </sst>
 </file>
@@ -1661,7 +1790,7 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25"/>
@@ -1684,10 +1813,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>28</v>
@@ -1695,10 +1824,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>26</v>
@@ -1706,101 +1835,104 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>62</v>
+        <v>19</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1808,86 +1940,92 @@
         <v>21</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>36</v>
+      <c r="B17" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>38</v>
+        <v>63</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="4" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>32</v>
+        <v>64</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>56</v>
+        <v>36</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="B21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1982,10 +2120,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>28</v>
@@ -1993,10 +2131,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>26</v>
@@ -2004,35 +2142,35 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2081,7 +2219,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>22</v>
@@ -2092,13 +2230,13 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2106,59 +2244,59 @@
         <v>21</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>23</v>
@@ -2169,13 +2307,13 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2186,7 +2324,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22" s="4"/>
     </row>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -16,16 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="75">
   <si>
     <t>liaoxuefeng js</t>
   </si>
   <si>
     <t>c#入门经典</t>
-  </si>
-  <si>
-    <t>cs50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>JavaScript语言入门教程</t>
@@ -1305,7 +1301,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1315,19 +1311,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1410,21 +1393,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1731,52 +1712,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="31.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1790,300 +1765,300 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="25.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="35.5" style="3"/>
+    <col min="1" max="1" width="30" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="35.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="10"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="7" t="s">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="7" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="7"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="7" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="7" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="7"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="7"/>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="7"/>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2100,300 +2075,300 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="25.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="35.5" style="3"/>
+    <col min="1" max="1" width="33.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="35.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="10"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" s="4"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="B25" s="4"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="7" t="s">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="4"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="7" t="s">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="7"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="7" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="7" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="7"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="7"/>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="7"/>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="77">
   <si>
     <t>liaoxuefeng js</t>
   </si>
@@ -555,7 +555,119 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">19:30-20:00 </t>
+      <t xml:space="preserve">21:00-22:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学音乐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实践</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22:00-22:30 social</t>
+  </si>
+  <si>
+    <t>22:00-22:30 social</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">15:00-16:30 Unity C# / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自由</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">15:00-16:30 Unity C# / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自由</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">16:30-21:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>娱乐玩游戏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:30-21:00 娱乐玩游戏</t>
+  </si>
+  <si>
+    <t>21:00-22:00 学音乐 / 实践</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">19:30-21:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加班</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">21:00-21:30 </t>
     </r>
     <r>
       <rPr>
@@ -590,6 +702,457 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">21:30-22:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学音乐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实践</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12:30-14:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目学习实践</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>娱乐玩游戏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4:30-5:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>想事</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / ideas</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5:30-6:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>洗漱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>杂事</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6:30-7:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通勤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>听英语</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6:00-6:30 Coding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">23:00-4:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>睡</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">18:00-18:45 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参考游戏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">18:45-19:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拓展游戏体验</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6:30-7:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学英语</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">23:00-4:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>睡</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14:00-14:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参考游戏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14:30-15:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拓展游戏体验</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14:00-14:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参考游戏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14:30-15:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拓展游戏体验</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7:00-7:45 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发技术</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / Coding</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7:45-8:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>美术</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14:00-15:00 ideas </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>看游戏原型</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">20:00-21:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学音乐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实践</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">21:00-22:00 </t>
     </r>
     <r>
@@ -600,7 +1163,158 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>学音乐</t>
+      <t>娱乐玩游戏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7:00-8:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目学习实践</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12:30-13:15 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发技术</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / Coding</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">13:15-14:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>美术</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:30-13:15 开发技术 / Coding</t>
+  </si>
+  <si>
+    <t>13:15-14:00 美术</t>
+  </si>
+  <si>
+    <t>22:30-23:00 阅读 / 视频</t>
+  </si>
+  <si>
+    <t>23:00-4:30 睡</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">16:30-20:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>娱乐玩游戏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:30-20:00 娱乐玩游戏</t>
+  </si>
+  <si>
+    <t>20:00-21:00 学音乐 / 实践</t>
+  </si>
+  <si>
+    <t>21:00-22:00 娱乐玩游戏</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">18:00-18:40 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参考游戏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">18:40-19:20 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拓展游戏体验</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">19:20-20:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通勤</t>
     </r>
     <r>
       <rPr>
@@ -619,682 +1333,9 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>实践</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22:00-22:30 social</t>
-  </si>
-  <si>
-    <t>22:00-22:30 social</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">15:00-16:30 Unity C# / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>自由</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">15:00-16:30 Unity C# / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="2" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>自由</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">16:30-21:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>娱乐玩游戏</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16:30-21:00 娱乐玩游戏</t>
-  </si>
-  <si>
-    <t>21:00-22:00 学音乐 / 实践</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">19:30-21:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>加班</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">21:00-21:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>通勤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>听英语</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">21:30-22:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>学音乐</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>实践</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">12:30-14:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>项目学习实践</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>娱乐玩游戏</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">4:30-5:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>运动</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>想事</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / ideas</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">5:30-6:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>洗漱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>杂事</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6:30-7:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>通勤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>听英语</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6:00-6:30 Coding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">23:00-4:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>睡</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">18:00-18:45 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>参考游戏</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">18:45-19:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>拓展游戏体验</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6:30-7:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>学英语</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">23:00-4:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="2" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>睡</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">14:00-14:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>参考游戏</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">14:30-15:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>拓展游戏体验</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">14:00-14:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="2" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>参考游戏</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">14:30-15:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="2" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>拓展游戏体验</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">7:00-7:45 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开发技术</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / Coding</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">7:45-8:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>美术</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">14:00-15:00 ideas </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>看游戏原型</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">20:00-21:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>学音乐</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>实践</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">21:00-22:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>娱乐玩游戏</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">7:00-8:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>项目学习实践</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">12:30-13:15 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开发技术</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / Coding</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">13:15-14:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>美术</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12:30-13:15 开发技术 / Coding</t>
-  </si>
-  <si>
-    <t>13:15-14:00 美术</t>
-  </si>
-  <si>
-    <t>22:30-23:00 阅读 / 视频</t>
-  </si>
-  <si>
-    <t>23:00-4:30 睡</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">16:30-20:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>娱乐玩游戏</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16:30-20:00 娱乐玩游戏</t>
-  </si>
-  <si>
-    <t>20:00-21:00 学音乐 / 实践</t>
-  </si>
-  <si>
-    <t>21:00-22:00 娱乐玩游戏</t>
   </si>
 </sst>
 </file>
@@ -1715,7 +1756,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1765,7 +1806,7 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1788,10 +1829,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>27</v>
@@ -1799,10 +1840,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>25</v>
@@ -1810,27 +1851,27 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1879,35 +1920,35 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1915,70 +1956,70 @@
         <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1986,21 +2027,21 @@
         <v>22</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2095,10 +2136,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>27</v>
@@ -2106,10 +2147,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>25</v>
@@ -2117,35 +2158,35 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2194,7 +2235,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>21</v>
@@ -2205,13 +2246,13 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2219,59 +2260,59 @@
         <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>22</v>
@@ -2282,13 +2323,13 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2299,7 +2340,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" s="2"/>
     </row>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="83">
   <si>
     <t>liaoxuefeng js</t>
   </si>
@@ -894,10 +894,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6:00-6:30 Coding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">23:00-4:30 </t>
     </r>
@@ -1185,6 +1181,133 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">13:15-14:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>美术</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:15-14:00 美术</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">16:30-20:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>娱乐玩游戏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">18:00-18:40 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参考游戏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">18:40-19:20 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拓展游戏体验</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">19:20-20:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通勤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>听英语</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6:00-6:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学习</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">12:30-13:15 </t>
     </r>
     <r>
@@ -1197,44 +1320,153 @@
       </rPr>
       <t>开发技术</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / Coding</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">13:15-14:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>美术</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12:30-13:15 开发技术 / Coding</t>
-  </si>
-  <si>
-    <t>13:15-14:00 美术</t>
-  </si>
-  <si>
-    <t>22:30-23:00 阅读 / 视频</t>
-  </si>
-  <si>
-    <t>23:00-4:30 睡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12:30-13:15 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发技术</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9:30-10:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文章</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公司</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9:30-10:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扒带</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10:30-12:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>午饭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>影视</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>杂事</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:30-10:30 扒带</t>
+  </si>
+  <si>
+    <t>10:30-12:30 午饭 / 影视 / 杂事</t>
   </si>
   <si>
     <r>
@@ -1243,7 +1475,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color theme="2" tint="-0.249977111117893"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -1253,73 +1485,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>16:30-20:00 娱乐玩游戏</t>
-  </si>
-  <si>
-    <t>20:00-21:00 学音乐 / 实践</t>
-  </si>
-  <si>
-    <t>21:00-22:00 娱乐玩游戏</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">18:00-18:40 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>参考游戏</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">18:40-19:20 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>拓展游戏体验</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">19:20-20:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>通勤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
+    <r>
+      <t xml:space="preserve">20:00-21:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学音乐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -1328,14 +1510,84 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>听英语</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实践</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">21:00-22:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>娱乐玩游戏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">22:30-23:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阅读</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>视频</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">15:00-16:30 Coding / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自由</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00-16:30 Coding / 自由</t>
   </si>
 </sst>
 </file>
@@ -1806,7 +2058,7 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1851,10 +2103,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="C4" s="8"/>
     </row>
@@ -1863,15 +2115,15 @@
         <v>47</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1898,13 +2150,13 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1912,43 +2164,43 @@
         <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1956,59 +2208,59 @@
         <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>72</v>
+        <v>60</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>73</v>
+        <v>61</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2018,7 +2270,7 @@
       <c r="B20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2027,21 +2279,21 @@
         <v>22</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>68</v>
+        <v>22</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2113,7 +2365,7 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A6" sqref="A6:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -2158,10 +2410,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="C4" s="8"/>
     </row>
@@ -2170,23 +2422,23 @@
         <v>47</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2246,13 +2498,13 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2260,15 +2512,15 @@
         <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>36</v>
@@ -2279,7 +2531,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>38</v>
@@ -2326,10 +2578,10 @@
         <v>35</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2340,7 +2592,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22" s="2"/>
     </row>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="18225" windowHeight="16395" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="18225" windowHeight="16395" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Coding" sheetId="2" r:id="rId1"/>
     <sheet name="日常" sheetId="3" r:id="rId2"/>
     <sheet name="日常 加班" sheetId="7" r:id="rId3"/>
+    <sheet name="Design" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="94">
   <si>
     <t>liaoxuefeng js</t>
   </si>
@@ -1588,6 +1589,139 @@
   </si>
   <si>
     <t>15:00-16:30 Coding / 自由</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">22:30-23:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>美术</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22:30-23:00 美术</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">20:00-21:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拓展游戏体验</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">18:40-19:20 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参考游戏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">20:00-21:00 拓展游戏体验 </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14:00-14:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参考游戏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14:30-15:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参考游戏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00-14:30 参考游戏</t>
+  </si>
+  <si>
+    <t>14:30-15:00 参考游戏</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6:00-6:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>专业阅读</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6:00-6:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>专业阅读</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2057,7 +2191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -2668,4 +2802,311 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="35.5" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/plan.xlsx
+++ b/plan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="91">
   <si>
     <t>liaoxuefeng js</t>
   </si>
@@ -1651,9 +1651,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">20:00-21:00 拓展游戏体验 </t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">14:00-14:30 </t>
     </r>
@@ -1670,26 +1667,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">14:30-15:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>参考游戏</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>14:00-14:30 参考游戏</t>
-  </si>
-  <si>
-    <t>14:30-15:00 参考游戏</t>
   </si>
   <si>
     <r>
@@ -2192,7 +2170,7 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C14" sqref="B14:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -2499,7 +2477,7 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B8"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -2809,7 +2787,7 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -2854,10 +2832,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C4" s="8"/>
     </row>
@@ -2948,10 +2926,10 @@
         <v>59</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2959,10 +2937,10 @@
         <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -2997,10 +2975,10 @@
         <v>85</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="89">
   <si>
     <t>liaoxuefeng js</t>
   </si>
@@ -1589,25 +1589,6 @@
   </si>
   <si>
     <t>15:00-16:30 Coding / 自由</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">22:30-23:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>美术</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22:30-23:00 美术</t>
   </si>
   <si>
     <r>
@@ -2170,7 +2151,7 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="B14:C14"/>
+      <selection activeCell="C21" sqref="A21:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -2787,7 +2768,7 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -2832,10 +2813,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C4" s="8"/>
     </row>
@@ -2926,10 +2907,10 @@
         <v>59</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2956,7 +2937,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2972,7 +2953,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>60</v>
@@ -3005,13 +2986,13 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -2768,7 +2768,7 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="18225" windowHeight="16395" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="18225" windowHeight="16395" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Coding" sheetId="2" r:id="rId1"/>
     <sheet name="日常" sheetId="3" r:id="rId2"/>
     <sheet name="日常 加班" sheetId="7" r:id="rId3"/>
-    <sheet name="Design" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="84">
   <si>
     <t>liaoxuefeng js</t>
   </si>
@@ -1612,73 +1611,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">18:40-19:20 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>参考游戏</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">14:00-14:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>参考游戏</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14:00-14:30 参考游戏</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6:00-6:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>专业阅读</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6:00-6:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>专业阅读</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2150,8 +2082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="A21:C21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -2336,7 +2268,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>60</v>
@@ -2761,311 +2693,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C40"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="25.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="35.5" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/plan.xlsx
+++ b/plan.xlsx
@@ -4,37 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="18225" windowHeight="16395" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="18225" windowHeight="16395"/>
   </bookViews>
   <sheets>
-    <sheet name="Coding" sheetId="2" r:id="rId1"/>
-    <sheet name="日常" sheetId="3" r:id="rId2"/>
-    <sheet name="日常 加班" sheetId="7" r:id="rId3"/>
+    <sheet name="日常" sheetId="3" r:id="rId1"/>
+    <sheet name="日常 加班" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="84">
-  <si>
-    <t>liaoxuefeng js</t>
-  </si>
-  <si>
-    <t>c#入门经典</t>
-  </si>
-  <si>
-    <t>JavaScript语言入门教程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ECMAScript 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JavaScript语言精粹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="78">
   <si>
     <t>9:00-9:30 news</t>
   </si>
@@ -547,10 +528,6 @@
       </rPr>
       <t>视频</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TypeScript</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1619,7 +1596,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1646,13 +1623,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1711,19 +1681,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2030,60 +1999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="31.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -2094,289 +2013,289 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>24</v>
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>27</v>
+        <v>39</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>25</v>
+        <v>40</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="8"/>
+        <v>63</v>
+      </c>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>28</v>
+        <v>13</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>75</v>
+        <v>67</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>76</v>
+        <v>68</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>71</v>
+        <v>64</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>64</v>
+        <v>57</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>56</v>
+        <v>48</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>77</v>
+        <v>59</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>78</v>
+        <v>54</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>79</v>
+        <v>55</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>34</v>
+        <v>28</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>80</v>
+        <v>17</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>52</v>
+        <v>42</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>11</v>
+      <c r="A27" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>12</v>
+      <c r="A28" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
+      <c r="A29" s="4"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>13</v>
+      <c r="A31" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>14</v>
+      <c r="A32" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
+      <c r="A33" s="4"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>16</v>
+      <c r="A35" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
+      <c r="A37" s="4"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
+      <c r="A40" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2385,7 +2304,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C42"/>
   <sheetViews>
@@ -2401,223 +2320,223 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>24</v>
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>27</v>
+        <v>39</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>25</v>
+        <v>40</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="8"/>
+        <v>63</v>
+      </c>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>28</v>
+        <v>13</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>29</v>
+        <v>3</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>26</v>
+        <v>4</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>30</v>
+        <v>16</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>56</v>
+        <v>48</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>31</v>
+        <v>17</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>52</v>
+        <v>42</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2"/>
     </row>
@@ -2632,61 +2551,61 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>11</v>
+      <c r="A27" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>12</v>
+      <c r="A28" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
+      <c r="A29" s="4"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>13</v>
+      <c r="A31" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>14</v>
+      <c r="A32" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
+      <c r="A33" s="4"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>16</v>
+      <c r="A35" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
+      <c r="A39" s="4"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
+      <c r="A42" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="71">
   <si>
     <t>9:00-9:30 news</t>
   </si>
@@ -158,34 +158,6 @@
       </rPr>
       <t>工作日</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影视剧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>娱乐节目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>social</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出去走</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5h</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2002,7 +1974,7 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -2017,68 +1989,68 @@
         <v>5</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2094,202 +2066,172 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="A27" s="4"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="A28" s="4"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="A31" s="4"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="A32" s="4"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A35" s="4"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
@@ -2309,7 +2251,7 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -2324,76 +2266,76 @@
         <v>5</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2415,128 +2357,128 @@
         <v>3</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2"/>
     </row>
@@ -2549,57 +2491,27 @@
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="A27" s="4"/>
       <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="A28" s="4"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="A31" s="4"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="A32" s="4"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A35" s="4"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -1192,7 +1192,7 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>9:00-9:30 news</t>
   </si>
@@ -323,7 +323,414 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">16:30-20:00 </t>
+      <t xml:space="preserve">18:00-18:40 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参考游戏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6:00-6:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学习</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9:30-10:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文章</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公司</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10:30-12:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>午饭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>影视</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>杂事</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">22:30-23:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阅读</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>视频</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">18:40-19:20 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拓展游戏体验</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12:30-13:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拓展游戏体验</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">13:30-14:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>美术</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:00-21:00 Coding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">15:00-16:30 Unity / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自由</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10:30-12:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工作</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14:00-18:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工作</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6:30-7:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通勤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">19:20-20:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通勤</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6:30-7:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>英语</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14:00-15:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拓展游戏体验</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9:30-10:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学音乐</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">13:30-14:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>美术</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">18:30-20:00 </t>
     </r>
     <r>
       <rPr>
@@ -339,33 +746,17 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">18:00-18:40 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>参考游戏</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6:00-6:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>学习</t>
+      <t xml:space="preserve">16:30-18:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>美术</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -376,17 +767,33 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文章</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学音乐</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10:30-12:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>午饭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -395,17 +802,17 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>项目管理</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>影视</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -414,61 +821,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>公司</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">10:30-12:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>午饭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>影视</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
+        <color theme="2" tint="-0.249977111117893"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -478,11 +831,106 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10:30-12:30 午饭 / 影视 / 杂事</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">16:30-20:00 </t>
+    <r>
+      <t xml:space="preserve">12:30-13:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拓展游戏体验</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">13:30-14:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>美术</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14:00-15:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拓展游戏体验</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">15:00-16:30 Unity / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自由</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">16:30-18:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>美术</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">18:30-20:00 </t>
     </r>
     <r>
       <rPr>
@@ -511,275 +959,6 @@
       <t>娱乐玩游戏</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">22:30-23:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="2" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>阅读</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="2" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="2" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>视频</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">18:40-19:20 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>拓展游戏体验</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">12:30-13:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>拓展游戏体验</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">13:30-14:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>美术</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">12:30-13:30 拓展游戏体验 </t>
-  </si>
-  <si>
-    <t>13:30-14:00 美术</t>
-  </si>
-  <si>
-    <t>20:00-21:00 Coding</t>
-  </si>
-  <si>
-    <t>20:00-21:00 Coding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">9:30-10:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>美术</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9:30-10:30 美术</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">15:00-16:30 Unity / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>自由</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15:00-16:30 Unity / 自由</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">10:30-12:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>工作</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">14:00-18:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>工作</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6:30-7:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>通勤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">19:20-20:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>通勤</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6:30-7:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>英语</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">14:00-15:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>拓展游戏体验</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">14:00-15:00 拓展游戏体验 </t>
   </si>
 </sst>
 </file>
@@ -1192,7 +1371,7 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1237,19 +1416,19 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1284,95 +1463,101 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1383,7 +1568,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1405,7 +1590,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -730,12 +730,164 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">18:30-20:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
+      <t xml:space="preserve">9:30-10:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学音乐</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10:30-12:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>午饭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>影视</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>杂事</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12:30-13:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拓展游戏体验</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">13:30-14:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>美术</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14:00-15:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拓展游戏体验</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">15:00-16:30 Unity / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自由</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">21:00-22:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -746,7 +898,23 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">16:30-18:30 </t>
+      <t xml:space="preserve">16:30-18:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>娱乐玩游戏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">18:00-20:00 </t>
     </r>
     <r>
       <rPr>
@@ -762,102 +930,23 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">9:30-10:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="2" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>学音乐</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">10:30-12:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="2" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>午饭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="2" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="2" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>影视</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="2" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="2" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>杂事</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">12:30-13:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="2" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>拓展游戏体验</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="2" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">13:30-14:00 </t>
+      <t xml:space="preserve">16:30-18:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>娱乐玩游戏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">18:00-20:00 </t>
     </r>
     <r>
       <rPr>
@@ -868,95 +957,6 @@
         <charset val="134"/>
       </rPr>
       <t>美术</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">14:00-15:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="2" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>拓展游戏体验</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="2" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">15:00-16:30 Unity / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="2" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>自由</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">16:30-18:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="2" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>美术</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">18:30-20:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="2" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>娱乐玩游戏</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">21:00-22:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="2" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>娱乐玩游戏</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1371,7 +1371,7 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1469,7 +1469,7 @@
         <v>34</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1480,7 +1480,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1491,7 +1491,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1502,7 +1502,7 @@
         <v>35</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1513,7 +1513,7 @@
         <v>33</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1524,7 +1524,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1532,10 +1532,10 @@
         <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1543,10 +1543,10 @@
         <v>31</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1568,7 +1568,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -1371,7 +1371,7 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0A28F7-4E34-6742-B0B0-8B7121F38933}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="18225" windowHeight="16395"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="日常" sheetId="3" r:id="rId1"/>
+    <sheet name="上班" sheetId="3" r:id="rId1"/>
+    <sheet name="SOHO" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="72">
   <si>
     <t>9:00-9:30 news</t>
   </si>
@@ -958,14 +960,331 @@
       </rPr>
       <t>美术</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6:30-7:00 早饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7:00-8:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设计</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9:30-10:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文章</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">18:00-18:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>晚饭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 视频</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10:30-12:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学美术</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">20:00-21:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拓展游戏体验</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">22:30-23:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阅读</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00-16:00 学开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">18:30-20:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学音乐</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:30-10:30 扒带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">16:30-20:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>娱乐玩游戏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12:30-14:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>午饭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>影视</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>杂事</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12:30-14:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>午饭</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">16:00-18:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>副业</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9:30-10:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扒带</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:30-12:30 学美术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:30-14:30 午饭 / 影视 / 杂事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14:30-16:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学开发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自由</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:30-16:30 学开发 / 自由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:30-20:00 娱乐玩游戏</t>
+  </si>
+  <si>
+    <t>20:00-21:00 拓展游戏体验</t>
+  </si>
+  <si>
+    <t>21:00-22:00 娱乐玩游戏</t>
+  </si>
+  <si>
+    <t>22:30-23:00 阅读</t>
+  </si>
+  <si>
+    <t>23:00-4:30 睡</t>
+  </si>
+  <si>
+    <t>7:00-22:00 自由</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1029,6 +1348,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1050,7 +1376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1063,6 +1389,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1082,7 +1411,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1157,6 +1486,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1192,6 +1538,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1367,21 +1730,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView zoomScale="133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="35.5" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="25.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="35.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1392,7 +1755,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="16">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -1403,7 +1766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="16">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1414,7 +1777,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1423,7 +1786,7 @@
       </c>
       <c r="C4" s="7"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="16">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -1431,7 +1794,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="16">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1439,7 +1802,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="16">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -1450,7 +1813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="16">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -1461,7 +1824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="16">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -1472,7 +1835,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="16">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -1483,7 +1846,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="16">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
@@ -1494,7 +1857,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="16">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
@@ -1505,7 +1868,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="16">
       <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
@@ -1516,7 +1879,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="16">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -1527,7 +1890,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1538,7 +1901,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="16">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -1549,7 +1912,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="16">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
@@ -1560,7 +1923,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="16">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -1571,7 +1934,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -1582,7 +1945,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="16">
       <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
@@ -1593,7 +1956,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -1604,31 +1967,31 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="4"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="4"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="4"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="4"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="4"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" s="4"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" s="4"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" s="4"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1">
       <c r="A40" s="4"/>
     </row>
   </sheetData>
@@ -1636,4 +1999,301 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A59615-3E83-8840-8BBE-D697E607BF91}">
+  <dimension ref="A1:D40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="35.5" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="35.5" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" ht="16">
+      <c r="A5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16">
+      <c r="A6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16">
+      <c r="A9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16">
+      <c r="A10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16">
+      <c r="A11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16">
+      <c r="A12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16">
+      <c r="A13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:4" ht="16">
+      <c r="A14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16">
+      <c r="A16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16">
+      <c r="A18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16">
+      <c r="A19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16">
+      <c r="A20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="D21" s="7"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="4"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="4"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="4"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="4"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="4"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="4"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="4"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="4"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C6:C17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/plan.xlsx
+++ b/plan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0A28F7-4E34-6742-B0B0-8B7121F38933}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC752E9-8A84-7049-9435-104873F9D5FF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="上班" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="75">
   <si>
     <t>9:00-9:30 news</t>
   </si>
@@ -968,7 +968,248 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">7:00-8:30 </t>
+      <t xml:space="preserve">9:30-10:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文章</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">18:00-18:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>晚饭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 视频</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">20:00-21:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拓展游戏体验</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">22:30-23:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阅读</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">18:30-20:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学音乐</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:30-10:30 扒带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">16:30-20:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>娱乐玩游戏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12:30-14:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>午饭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>影视</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>杂事</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9:30-10:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扒带</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:30-14:30 午饭 / 影视 / 杂事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14:30-16:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学开发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自由</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:30-16:30 学开发 / 自由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:30-20:00 娱乐玩游戏</t>
+  </si>
+  <si>
+    <t>20:00-21:00 拓展游戏体验</t>
+  </si>
+  <si>
+    <t>21:00-22:00 娱乐玩游戏</t>
+  </si>
+  <si>
+    <t>22:30-23:00 阅读</t>
+  </si>
+  <si>
+    <t>23:00-4:30 睡</t>
+  </si>
+  <si>
+    <t>7:00-22:00 自由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7:00-9:00 </t>
     </r>
     <r>
       <rPr>
@@ -984,42 +1225,49 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">9:30-10:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文章</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">18:00-18:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>晚饭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / 视频</t>
+      <t xml:space="preserve">16:00-17:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>副业</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14:00-16:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学开发</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">17:30-18:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>财经</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1037,11 +1285,20 @@
       </rPr>
       <t>学美术</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">20:00-21:00 </t>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 开发</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12:30-14:00 </t>
     </r>
     <r>
       <rPr>
@@ -1051,33 +1308,22 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>拓展游戏体验</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">22:30-23:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>阅读</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14:00-16:00 学开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">18:30-20:00 </t>
+      <t>午饭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 杂事</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10:30-12:30 </t>
     </r>
     <r>
       <rPr>
@@ -1087,33 +1333,16 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>学音乐</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9:30-10:30 扒带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">16:30-20:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>娱乐玩游戏</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">12:30-14:30 </t>
+      <t>学美术</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
     </r>
     <r>
       <rPr>
@@ -1123,160 +1352,37 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>午饭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
+      <t>开发</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10:30-12:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
         <rFont val="SimSun"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>影视</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>杂事</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">12:30-14:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>午饭</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">16:00-18:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>副业</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">9:30-10:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="2" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>扒带</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10:30-12:30 学美术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12:30-14:30 午饭 / 影视 / 杂事</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">14:30-16:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>学开发</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>自由</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14:30-16:30 学开发 / 自由</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16:30-20:00 娱乐玩游戏</t>
-  </si>
-  <si>
-    <t>20:00-21:00 拓展游戏体验</t>
-  </si>
-  <si>
-    <t>21:00-22:00 娱乐玩游戏</t>
-  </si>
-  <si>
-    <t>22:30-23:00 阅读</t>
-  </si>
-  <si>
-    <t>23:00-4:30 睡</t>
-  </si>
-  <si>
-    <t>7:00-22:00 自由</t>
+      <t>学美术</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 开发</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周末free</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1284,7 +1390,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1351,6 +1457,13 @@
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="2" tint="-0.249977111117893"/>
       <name val="SimSun"/>
       <family val="3"/>
       <charset val="134"/>
@@ -2006,7 +2119,7 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="35.5" defaultRowHeight="15"/>
@@ -2026,7 +2139,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>6</v>
@@ -2085,96 +2198,93 @@
     </row>
     <row r="6" spans="1:4" ht="16">
       <c r="A6" s="2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16">
       <c r="A7" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="8" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16">
       <c r="A8" s="2" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="8" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16">
       <c r="A9" s="2" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="8" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16">
       <c r="A10" s="2" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16">
       <c r="A11" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16">
       <c r="A12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C12" s="9"/>
-      <c r="D12" s="8" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="13" spans="1:4" ht="16">
       <c r="A13" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:4" ht="16">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="9"/>
@@ -2182,26 +2292,26 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16">
       <c r="A16" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16">
@@ -2213,7 +2323,7 @@
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16">
@@ -2232,16 +2342,16 @@
     </row>
     <row r="19" spans="1:4" ht="16">
       <c r="A19" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16">
@@ -2255,7 +2365,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:4">

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC752E9-8A84-7049-9435-104873F9D5FF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="上班" sheetId="3" r:id="rId1"/>
@@ -1389,7 +1388,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11">
     <font>
       <sz val="11"/>
@@ -1524,7 +1523,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1599,23 +1598,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1651,23 +1633,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1843,17 +1808,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView zoomScale="133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B21"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="35.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="35.5" style="1"/>
   </cols>
   <sheetData>
@@ -1868,7 +1833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -1879,7 +1844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1899,7 +1864,7 @@
       </c>
       <c r="C4" s="7"/>
     </row>
-    <row r="5" spans="1:3" ht="16">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -1907,7 +1872,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16">
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1915,7 +1880,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16">
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -1926,7 +1891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16">
+    <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -1937,7 +1902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16">
+    <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -1948,7 +1913,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16">
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -1959,7 +1924,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16">
+    <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
@@ -1970,7 +1935,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16">
+    <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
@@ -1981,7 +1946,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16">
+    <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
@@ -1992,7 +1957,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16">
+    <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -2014,7 +1979,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16">
+    <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -2025,7 +1990,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16">
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
@@ -2036,7 +2001,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16">
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -2058,7 +2023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16">
+    <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
@@ -2115,19 +2080,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A59615-3E83-8840-8BBE-D697E607BF91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="35.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="35.5" style="1"/>
   </cols>
   <sheetData>
@@ -2145,7 +2110,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -2159,7 +2124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -2185,7 +2150,7 @@
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:4" ht="16">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>47</v>
       </c>
@@ -2196,7 +2161,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16">
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>66</v>
       </c>
@@ -2210,7 +2175,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16">
+    <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -2222,7 +2187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16">
+    <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
         <v>48</v>
       </c>
@@ -2234,7 +2199,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16">
+    <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
         <v>70</v>
       </c>
@@ -2246,7 +2211,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16">
+    <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
         <v>71</v>
       </c>
@@ -2258,7 +2223,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16">
+    <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
         <v>68</v>
       </c>
@@ -2270,19 +2235,19 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16">
+    <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C12" s="9"/>
     </row>
-    <row r="13" spans="1:4" ht="16">
+    <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C13" s="9"/>
     </row>
-    <row r="14" spans="1:4" ht="16">
+    <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
         <v>49</v>
       </c>
@@ -2302,7 +2267,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16">
+    <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
         <v>50</v>
       </c>
@@ -2314,7 +2279,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16">
+    <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -2326,7 +2291,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16">
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -2340,7 +2305,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16">
+    <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
         <v>51</v>
       </c>
@@ -2354,7 +2319,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16">
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -983,7 +983,369 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">18:00-18:30 </t>
+      <t xml:space="preserve">20:00-21:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拓展游戏体验</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">22:30-23:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阅读</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:30-10:30 扒带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">16:30-20:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>娱乐玩游戏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12:30-14:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>午饭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>影视</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>杂事</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9:30-10:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扒带</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:30-14:30 午饭 / 影视 / 杂事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14:30-16:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学开发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自由</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:30-16:30 学开发 / 自由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:30-20:00 娱乐玩游戏</t>
+  </si>
+  <si>
+    <t>20:00-21:00 拓展游戏体验</t>
+  </si>
+  <si>
+    <t>21:00-22:00 娱乐玩游戏</t>
+  </si>
+  <si>
+    <t>22:30-23:00 阅读</t>
+  </si>
+  <si>
+    <t>23:00-4:30 睡</t>
+  </si>
+  <si>
+    <t>7:00-22:00 自由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7:00-9:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设计</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">16:00-17:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>副业</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14:00-16:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学开发</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10:30-12:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学美术</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 开发</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12:30-14:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>午饭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 杂事</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10:30-12:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学美术</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10:30-12:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学美术</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 开发</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周末free</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">17:30-18:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>财经</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">18:30-19:00 </t>
     </r>
     <r>
       <rPr>
@@ -1002,13 +1364,23 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> / 视频</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">20:00-21:00 </t>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>视频</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">19:00-20:00 </t>
     </r>
     <r>
       <rPr>
@@ -1018,370 +1390,8 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>拓展游戏体验</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">22:30-23:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>阅读</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">18:30-20:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>学音乐</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9:30-10:30 扒带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">16:30-20:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>娱乐玩游戏</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">12:30-14:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>午饭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>影视</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>杂事</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">9:30-10:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="2" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>扒带</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12:30-14:30 午饭 / 影视 / 杂事</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">14:30-16:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>学开发</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>自由</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14:30-16:30 学开发 / 自由</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16:30-20:00 娱乐玩游戏</t>
-  </si>
-  <si>
-    <t>20:00-21:00 拓展游戏体验</t>
-  </si>
-  <si>
-    <t>21:00-22:00 娱乐玩游戏</t>
-  </si>
-  <si>
-    <t>22:30-23:00 阅读</t>
-  </si>
-  <si>
-    <t>23:00-4:30 睡</t>
-  </si>
-  <si>
-    <t>7:00-22:00 自由</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">7:00-9:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>设计</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">16:00-17:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>副业</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">14:00-16:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>学开发</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">17:30-18:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>财经</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">10:30-12:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>学美术</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / 开发</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">12:30-14:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>午饭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / 杂事</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">10:30-12:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>学美术</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开发</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">10:30-12:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="2" tint="-0.249977111117893"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>学美术</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="2" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / 开发</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周末free</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2084,7 +2094,7 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25"/>
@@ -2104,7 +2114,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>6</v>
@@ -2163,13 +2173,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>9</v>
@@ -2192,64 +2202,64 @@
         <v>48</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="9"/>
@@ -2257,26 +2267,26 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2288,7 +2298,7 @@
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2307,16 +2317,16 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2330,7 +2340,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:4">

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10908"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4694C1B8-A842-9145-BFD4-B5AA968D5814}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16380" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="上班" sheetId="3" r:id="rId1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="74">
   <si>
     <t>9:00-9:30 news</t>
   </si>
@@ -983,7 +984,27 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">20:00-21:00 </t>
+      <t xml:space="preserve">22:30-23:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阅读</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:30-10:30 扒带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12:30-14:30 </t>
     </r>
     <r>
       <rPr>
@@ -993,39 +1014,363 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>拓展游戏体验</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">22:30-23:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>阅读</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9:30-10:30 扒带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">16:30-20:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
+      <t>午饭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>影视</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>杂事</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9:30-10:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扒带</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:30-14:30 午饭 / 影视 / 杂事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14:30-16:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学开发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自由</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:30-16:30 学开发 / 自由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22:30-23:00 阅读</t>
+  </si>
+  <si>
+    <t>23:00-4:30 睡</t>
+  </si>
+  <si>
+    <t>7:00-22:00 自由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7:00-9:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设计</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">16:00-17:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>副业</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14:00-16:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学开发</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10:30-12:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学美术</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 开发</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12:30-14:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>午饭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 杂事</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10:30-12:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学美术</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10:30-12:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学美术</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 开发</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周末free</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">17:30-18:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>财经</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">18:30-19:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>晚饭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>视频</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">19:00-20:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学音乐</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:00-22:00 拓展游戏体验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:00-21:00 娱乐玩游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">16:30-21:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
@@ -1034,371 +1379,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">12:30-14:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>午饭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>影视</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>杂事</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">9:30-10:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="2" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>扒带</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12:30-14:30 午饭 / 影视 / 杂事</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">14:30-16:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>学开发</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>自由</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14:30-16:30 学开发 / 自由</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16:30-20:00 娱乐玩游戏</t>
-  </si>
-  <si>
-    <t>20:00-21:00 拓展游戏体验</t>
-  </si>
-  <si>
-    <t>21:00-22:00 娱乐玩游戏</t>
-  </si>
-  <si>
-    <t>22:30-23:00 阅读</t>
-  </si>
-  <si>
-    <t>23:00-4:30 睡</t>
-  </si>
-  <si>
-    <t>7:00-22:00 自由</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">7:00-9:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>设计</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">16:00-17:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>副业</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">14:00-16:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>学开发</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">10:30-12:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>学美术</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / 开发</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">12:30-14:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>午饭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / 杂事</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">10:30-12:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>学美术</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开发</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">10:30-12:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="2" tint="-0.249977111117893"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>学美术</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="2" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / 开发</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周末free</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">17:30-18:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>财经</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">18:30-19:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>晚饭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>视频</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">19:00-20:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>学音乐</t>
-    </r>
+    <t>16:30-21:00 娱乐玩游戏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11">
     <font>
       <sz val="11"/>
@@ -1533,7 +1521,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1608,6 +1596,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1643,6 +1648,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1818,17 +1840,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="35.5" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="25.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="35.5" style="1"/>
   </cols>
   <sheetData>
@@ -1843,7 +1865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="16">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -1854,7 +1876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="16">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1874,7 +1896,7 @@
       </c>
       <c r="C4" s="7"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" ht="16">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -1882,7 +1904,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" ht="16">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1890,7 +1912,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" ht="16">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -1901,7 +1923,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="16">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -1912,7 +1934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" ht="16">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -1923,7 +1945,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" ht="16">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -1934,7 +1956,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="16">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
@@ -1945,7 +1967,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" ht="16">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
@@ -1956,7 +1978,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="16">
       <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
@@ -1967,7 +1989,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" ht="16">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -1989,7 +2011,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" ht="16">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -2000,7 +2022,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="16">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
@@ -2011,7 +2033,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" ht="16">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -2033,7 +2055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" ht="16">
       <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
@@ -2090,19 +2112,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="35.5" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="35.5" style="1"/>
   </cols>
   <sheetData>
@@ -2114,13 +2136,13 @@
         <v>5</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="16">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -2134,7 +2156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="16">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -2160,7 +2182,7 @@
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="16">
       <c r="A5" s="2" t="s">
         <v>47</v>
       </c>
@@ -2171,21 +2193,21 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="16">
       <c r="A6" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="16">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -2197,69 +2219,69 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" ht="16">
       <c r="A8" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16">
       <c r="A9" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16">
       <c r="A10" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16">
       <c r="A11" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16">
       <c r="A12" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C12" s="9"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" ht="16">
       <c r="A13" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C13" s="9"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" ht="16">
       <c r="A14" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="9"/>
@@ -2267,41 +2289,36 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" ht="16">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -2315,21 +2332,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" ht="16">
       <c r="A19" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16">
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
@@ -2340,7 +2357,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:4">

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4694C1B8-A842-9145-BFD4-B5AA968D5814}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C67A077-80B9-DF4B-8150-730B9CA17699}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="上班" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="78">
   <si>
     <t>9:00-9:30 news</t>
   </si>
@@ -983,22 +983,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">22:30-23:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>阅读</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9:30-10:30 扒带</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1116,9 +1100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>22:30-23:00 阅读</t>
-  </si>
-  <si>
     <t>23:00-4:30 睡</t>
   </si>
   <si>
@@ -1127,23 +1108,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">7:00-9:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>设计</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">16:00-17:30 </t>
+      <t xml:space="preserve">10:30-12:30 </t>
     </r>
     <r>
       <rPr>
@@ -1153,13 +1118,22 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>副业</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">14:00-16:00 </t>
+      <t>学美术</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 开发</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12:30-14:00 </t>
     </r>
     <r>
       <rPr>
@@ -1169,7 +1143,16 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>学开发</t>
+      <t>午饭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 杂事</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1194,13 +1177,87 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10:30-12:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学美术</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve"> / 开发</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">12:30-14:00 </t>
+    <t>周末free</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">18:30-19:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>晚饭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>视频</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">19:00-20:00 </t>
     </r>
     <r>
       <rPr>
@@ -1210,22 +1267,63 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>午饭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / 杂事</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">10:30-12:30 </t>
+      <t>学音乐</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:00-21:00 娱乐玩游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00-15:00 财经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00-17:00 学开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:00-18:30 副业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">22:00-23:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拓展游戏体验</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:00-9:00 英语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7:00-8:00 阅读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:00-22:00 设计</t>
+  </si>
+  <si>
+    <t>21:00-22:00 设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22:00-23:00 拓展游戏体验</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">16:30-20:00 </t>
     </r>
     <r>
       <rPr>
@@ -1235,151 +1333,56 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>学美术</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
+      <t>娱乐玩游戏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">16:30-20:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
         <rFont val="SimSun"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>开发</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">10:30-12:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="2" tint="-0.249977111117893"/>
+      <t>娱乐玩游戏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">20:00-21:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
         <rFont val="SimSun"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>学美术</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="2" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / 开发</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周末free</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">17:30-18:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
+      <t>娱乐玩游戏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">20:00-21:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="2" tint="-0.249977111117893"/>
         <rFont val="SimSun"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>财经</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">18:30-19:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>晚饭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>视频</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">19:00-20:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>学音乐</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21:00-22:00 拓展游戏体验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20:00-21:00 娱乐玩游戏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">16:30-21:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>娱乐玩游戏</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16:30-21:00 娱乐玩游戏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2115,8 +2118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="35.5" defaultRowHeight="15"/>
@@ -2136,7 +2139,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>6</v>
@@ -2195,155 +2198,156 @@
     </row>
     <row r="6" spans="1:4" ht="16">
       <c r="A6" s="2" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16">
-      <c r="A7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>0</v>
+      <c r="A7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="8" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16">
       <c r="A8" s="2" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="8" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16">
       <c r="A9" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="8" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16">
       <c r="A10" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16">
       <c r="A11" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16">
       <c r="A12" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="C12" s="9"/>
+      <c r="D12" s="8" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="16">
       <c r="A13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:4" ht="16">
       <c r="A14" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="9"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>69</v>
+    <row r="15" spans="1:4" ht="16">
+      <c r="A15" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" ht="16">
-      <c r="A16" s="2" t="s">
-        <v>71</v>
+      <c r="A16" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C16" s="9"/>
-      <c r="D16" s="7" t="s">
-        <v>73</v>
+      <c r="D16" s="8" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16">
       <c r="A17" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="8" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C18" s="9"/>
       <c r="D18" s="8" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16">
       <c r="A19" s="2" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16">
@@ -2357,7 +2361,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2392,7 +2396,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C6:C17"/>
+    <mergeCell ref="C6:C18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C67A077-80B9-DF4B-8150-730B9CA17699}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2B6BAE-15EB-864D-A517-CB1C9272EF71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="上班" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="80">
   <si>
     <t>9:00-9:30 news</t>
   </si>
@@ -983,12 +983,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9:30-10:30 扒带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">12:30-14:30 </t>
+    <t>23:00-4:30 睡</t>
+  </si>
+  <si>
+    <t>7:00-22:00 自由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12:30-14:00 </t>
     </r>
     <r>
       <rPr>
@@ -1007,17 +1010,27 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>影视</t>
+      <t xml:space="preserve"> / 杂事</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周末free</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">18:30-19:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>晚饭</t>
     </r>
     <r>
       <rPr>
@@ -1032,12 +1045,86 @@
       <rPr>
         <sz val="10.5"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>视频</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">19:00-20:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
         <rFont val="SimSun"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>杂事</t>
-    </r>
+      <t>学音乐</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:00-21:00 娱乐玩游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00-15:00 财经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">22:00-23:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拓展游戏体验</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:00-22:00 设计</t>
+  </si>
+  <si>
+    <t>21:00-22:00 设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22:00-23:00 拓展游戏体验</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">20:00-21:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>娱乐玩游戏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7:00-8:00 英语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:00-9:00 阅读</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1047,32 +1134,55 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="2" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>扒带</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12:30-14:30 午饭 / 影视 / 杂事</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">14:30-16:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="SimSun"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>学开发</t>
+      <t>学音乐 / 文章</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:30-12:30 工作</t>
+  </si>
+  <si>
+    <t>10:30-12:30 工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">18:00-18:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>副业</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00-18:00 工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">15:00-16:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工作</t>
     </r>
     <r>
       <rPr>
@@ -1096,19 +1206,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>14:30-16:30 学开发 / 自由</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23:00-4:30 睡</t>
-  </si>
-  <si>
-    <t>7:00-22:00 自由</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">10:30-12:30 </t>
+    <r>
+      <t xml:space="preserve">12:30-15:00 </t>
     </r>
     <r>
       <rPr>
@@ -1118,7 +1217,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>学美术</t>
+      <t>午饭</t>
     </r>
     <r>
       <rPr>
@@ -1127,13 +1226,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> / 开发</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">12:30-14:00 </t>
+      <t xml:space="preserve"> / </t>
     </r>
     <r>
       <rPr>
@@ -1143,7 +1236,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>午饭</t>
+      <t>影视</t>
     </r>
     <r>
       <rPr>
@@ -1152,13 +1245,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> / 杂事</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">10:30-12:30 </t>
+      <t xml:space="preserve"> / </t>
     </r>
     <r>
       <rPr>
@@ -1168,16 +1255,13 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>学美术</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
+      <t>杂事</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">16:00-18::30 </t>
     </r>
     <r>
       <rPr>
@@ -1187,210 +1271,53 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>开发</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">10:30-12:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="2" tint="-0.249977111117893"/>
+      <t>娱乐玩游戏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">19:00-20:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
         <rFont val="SimSun"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>学美术</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="2" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / 开发</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周末free</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">18:30-19:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>晚饭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>视频</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">19:00-20:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>学音乐</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+      <t>娱乐玩游戏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:30-10:30 学音乐 / 文章</t>
+  </si>
+  <si>
+    <t>12:30-15:00 午饭 / 影视 / 杂事</t>
+  </si>
+  <si>
+    <t>15:00-16:00 工作 / 自由</t>
+  </si>
+  <si>
+    <t>16:00-18::30 娱乐玩游戏</t>
+  </si>
+  <si>
+    <t>18:30-19:00 晚饭 / 视频</t>
+  </si>
+  <si>
+    <t>19:00-20:00 娱乐玩游戏</t>
   </si>
   <si>
     <t>20:00-21:00 娱乐玩游戏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14:00-15:00 财经</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15:00-17:00 学开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17:00-18:30 副业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">22:00-23:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>拓展游戏体验</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8:00-9:00 英语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7:00-8:00 阅读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21:00-22:00 设计</t>
-  </si>
-  <si>
-    <t>21:00-22:00 设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22:00-23:00 拓展游戏体验</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">16:30-20:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>娱乐玩游戏</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">16:30-20:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="2" tint="-0.249977111117893"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>娱乐玩游戏</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">20:00-21:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>娱乐玩游戏</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">20:00-21:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="2" tint="-0.249977111117893"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>娱乐玩游戏</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1457,13 +1384,6 @@
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
-      <name val="SimSun"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="2" tint="-0.249977111117893"/>
       <name val="SimSun"/>
       <family val="3"/>
       <charset val="134"/>
@@ -2119,7 +2039,7 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="35.5" defaultRowHeight="15"/>
@@ -2139,7 +2059,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>6</v>
@@ -2198,21 +2118,21 @@
     </row>
     <row r="6" spans="1:4" ht="16">
       <c r="A6" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16">
       <c r="A7" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="8" t="s">
@@ -2236,52 +2156,52 @@
         <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="8" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16">
       <c r="A10" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16">
       <c r="A11" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="8" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16">
       <c r="A12" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="8" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16">
       <c r="A13" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C13" s="9"/>
     </row>
@@ -2289,65 +2209,74 @@
       <c r="A14" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="C14" s="9"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="7" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="16">
       <c r="A15" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="16">
       <c r="A16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>74</v>
+        <v>54</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16">
       <c r="A17" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16">
       <c r="A18" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="8" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16">
       <c r="A19" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16">
@@ -2361,7 +2290,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:4">

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2B6BAE-15EB-864D-A517-CB1C9272EF71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD44CEB-44F3-4C53-9FBA-116861427599}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="上班" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="73">
   <si>
     <t>9:00-9:30 news</t>
   </si>
@@ -963,361 +963,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6:30-7:00 早饭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">9:30-10:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文章</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23:00-4:30 睡</t>
-  </si>
-  <si>
-    <t>7:00-22:00 自由</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">12:30-14:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>午饭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / 杂事</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周末free</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">18:30-19:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>晚饭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>视频</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">19:00-20:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>学音乐</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20:00-21:00 娱乐玩游戏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14:00-15:00 财经</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">22:00-23:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>拓展游戏体验</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21:00-22:00 设计</t>
-  </si>
-  <si>
-    <t>21:00-22:00 设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22:00-23:00 拓展游戏体验</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">20:00-21:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>娱乐玩游戏</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7:00-8:00 英语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8:00-9:00 阅读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">9:30-10:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>学音乐 / 文章</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10:30-12:30 工作</t>
-  </si>
-  <si>
-    <t>10:30-12:30 工作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">18:00-18:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>副业</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15:00-18:00 工作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">15:00-16:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>工作</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>自由</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">12:30-15:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>午饭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>影视</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>杂事</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">16:00-18::30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>娱乐玩游戏</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">19:00-20:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>娱乐玩游戏</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9:30-10:30 学音乐 / 文章</t>
-  </si>
-  <si>
-    <t>12:30-15:00 午饭 / 影视 / 杂事</t>
-  </si>
-  <si>
-    <t>15:00-16:00 工作 / 自由</t>
-  </si>
-  <si>
-    <t>16:00-18::30 娱乐玩游戏</t>
-  </si>
-  <si>
-    <t>18:30-19:00 晚饭 / 视频</t>
-  </si>
-  <si>
-    <t>19:00-20:00 娱乐玩游戏</t>
-  </si>
-  <si>
-    <t>20:00-21:00 娱乐玩游戏</t>
+    <t>Workday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weekend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6:30-7:00 Breakfast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6:00-6:30 Study</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:30-19:00 Supper / Videos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:00-21:00 Games for fun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4:30-5:30 Exercise / Think / Ideas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00-20:00 Learn music</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:30-12:30 Work</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00-20:00 Games for fun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:00-18::30 Games for fun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00-10:00 News / Articles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00-10:30 Learn music</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5:30-6:00 Wash / Chore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weekend Free</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00-16:00 Movies / TV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:30-14:00 Lunch / Chore / Finance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:00-21:40 Games for trial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:40-22:20 Design</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22:20-4:30 Sleep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7:00-22:20 Free</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00-17:30 Work</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7:00-8:00 English Listen / Speak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:30-18:30 English Grammar / Vocab / Read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00-10:30 Read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:00-9:00 English Write / Read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1381,13 +1135,6 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="SimSun"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1409,7 +1156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1424,7 +1171,10 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1770,14 +1520,14 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="35.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="35.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1788,7 +1538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -1799,7 +1549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1810,7 +1560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1819,7 +1569,7 @@
       </c>
       <c r="C4" s="7"/>
     </row>
-    <row r="5" spans="1:3" ht="16">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -1827,7 +1577,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1835,7 +1585,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -1846,7 +1596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -1857,7 +1607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -1868,7 +1618,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -1879,7 +1629,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
@@ -1890,7 +1640,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
@@ -1901,7 +1651,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
@@ -1912,7 +1662,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -1923,7 +1673,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1934,7 +1684,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -1945,7 +1695,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
@@ -1956,7 +1706,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -1967,7 +1717,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -1978,7 +1728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
@@ -1989,7 +1739,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -2000,31 +1750,31 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
     </row>
   </sheetData>
@@ -2036,297 +1786,233 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="35.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="33.625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="35.5" style="1"/>
+    <col min="1" max="1" width="33.625" style="1"/>
+    <col min="2" max="2" width="28.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="33.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:4" ht="16">
-      <c r="A5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16">
-      <c r="A6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16">
-      <c r="A7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16">
-      <c r="A8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16">
-      <c r="A9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="B16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16">
-      <c r="A10" s="2" t="s">
+      <c r="B17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16">
-      <c r="A11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16">
-      <c r="A12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16">
-      <c r="A13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="9"/>
-    </row>
-    <row r="14" spans="1:4" ht="16">
-      <c r="A14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16">
-      <c r="A15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16">
-      <c r="A16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="16">
-      <c r="A17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16">
-      <c r="A18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="16">
-      <c r="A19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="16">
-      <c r="A20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="D21" s="7"/>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="C19" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C6:C18"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD44CEB-44F3-4C53-9FBA-116861427599}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33C1C86-53B6-4696-816A-03732FCD0BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="75">
   <si>
     <t>9:00-9:30 news</t>
   </si>
@@ -971,14 +971,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6:30-7:00 Breakfast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6:00-6:30 Study</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>18:30-19:00 Supper / Videos</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -987,38 +979,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4:30-5:30 Exercise / Think / Ideas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>19:00-20:00 Learn music</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10:30-12:30 Work</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>19:00-20:00 Games for fun</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>16:00-18::30 Games for fun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9:00-10:00 News / Articles</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10:00-10:30 Learn music</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5:30-6:00 Wash / Chore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Weekend Free</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1059,11 +1027,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10:00-10:30 Read</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8:00-9:00 English Write / Read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6:30-7:00 Articles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00-9:30 Study</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00-12:30 Work</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:30-10:00 Learn music</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5:00-6:00 Exercise / Think</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6:00-6:30 Wash / Breakfast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4:30-5:00 News / Chore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:00-18:30 Games for fun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5:00-6:00 Exercise / Think  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(9:00-10:00)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9:00-9:30 Study  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(5:00-5:30)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9:30-10:00 Read  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(5:30-6:00)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1071,7 +1111,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1134,6 +1174,12 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1789,14 +1835,14 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.625" style="1"/>
-    <col min="2" max="2" width="28.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.125" style="1" customWidth="1"/>
     <col min="4" max="16384" width="33.625" style="1"/>
   </cols>
   <sheetData>
@@ -1808,181 +1854,181 @@
         <v>48</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C18" s="9"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33C1C86-53B6-4696-816A-03732FCD0BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B07E6E-547A-4AF5-B435-E3F287187A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="74">
   <si>
     <t>9:00-9:30 news</t>
   </si>
@@ -979,10 +979,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>19:00-20:00 Learn music</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>19:00-20:00 Games for fun</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1003,18 +999,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>21:40-22:20 Design</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22:20-4:30 Sleep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7:00-22:20 Free</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>14:00-17:30 Work</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1035,18 +1019,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9:00-9:30 Study</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10:00-12:30 Work</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9:30-10:00 Learn music</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5:00-6:00 Exercise / Think</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1064,6 +1040,36 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">9:00-9:30 Study  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(5:00-5:30)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9:30-10:00 Read  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(5:30-6:00)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">5:00-6:00 Exercise / Think  </t>
     </r>
     <r>
@@ -1075,10 +1081,11 @@
       </rPr>
       <t>(9:00-10:00)</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">9:00-9:30 Study  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9:30-10:00 Music  </t>
     </r>
     <r>
       <rPr>
@@ -1087,23 +1094,24 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>(5:00-5:30)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">9:30-10:00 Read  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>(5:30-6:00)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">19:00-20:00 Music </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:40-22:30 Relaxation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22:30-4:30 Sleep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7:00-22:30 Free</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1835,13 +1843,13 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.125" style="1" customWidth="1"/>
     <col min="4" max="16384" width="33.625" style="1"/>
   </cols>
@@ -1854,124 +1862,124 @@
         <v>48</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C13" s="9"/>
     </row>
@@ -1986,10 +1994,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="C15" s="9"/>
     </row>
@@ -2004,31 +2012,31 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C18" s="9"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B07E6E-547A-4AF5-B435-E3F287187A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E58FB9-D124-4C3A-9E21-3283801D3434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="18240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="上班" sheetId="3" r:id="rId1"/>
     <sheet name="SOHO" sheetId="5" r:id="rId2"/>
+    <sheet name="Winter" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="89">
   <si>
     <t>9:00-9:30 news</t>
   </si>
@@ -1112,6 +1113,99 @@
   </si>
   <si>
     <t>7:00-22:30 Free</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5:30-6:00 News / Chore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6:00-7:00 Exercise / Think  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(9:00-10:00)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">6:00-7:00 Exercise / Think </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7:00-7:30 Wash / Breakfast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7:30-8:00 Articles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:00-23:30 Free</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23:30-5:30 Sleep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:00-9:00 English Listen / Speak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:00-22:00 Games for fun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22:00-22:40 Games for trial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22:40-23:30 Relaxation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">20:00-21:00 Music </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9:00-9:30 Study  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(6:00-6:30)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9:30-10:00 Read  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(6:30-7:00)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00-20:00 English Write / Read</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1571,7 +1665,7 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1842,8 +1936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -2071,4 +2165,239 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DFC055-3681-465C-9928-0CA3F775E0A8}">
+  <dimension ref="A1:C40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="33.625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="33.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>